--- a/Code/Results/Cases/Case_0_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2433290707069489</v>
+        <v>0.2433290707065936</v>
       </c>
       <c r="D2">
         <v>0.514670399294431</v>
       </c>
       <c r="E2">
-        <v>0.5695795069936693</v>
+        <v>0.5695795069936409</v>
       </c>
       <c r="F2">
-        <v>14.06949242927791</v>
+        <v>14.06949242927794</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7424239394151755</v>
+        <v>0.7424239394151826</v>
       </c>
       <c r="J2">
-        <v>29.61966176847085</v>
+        <v>29.61966176847068</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1802318614983704</v>
+        <v>0.1802318614985126</v>
       </c>
       <c r="D3">
-        <v>0.3034564052874629</v>
+        <v>0.3034564052870792</v>
       </c>
       <c r="E3">
-        <v>0.4272819619530424</v>
+        <v>0.427281961953085</v>
       </c>
       <c r="F3">
-        <v>9.504055993926983</v>
+        <v>9.504055993927096</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5291152491863116</v>
+        <v>0.5291152491862903</v>
       </c>
       <c r="J3">
-        <v>23.01601884344188</v>
+        <v>23.01601884344194</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1530558703579743</v>
+        <v>0.1530558703583438</v>
       </c>
       <c r="D4">
-        <v>0.2284713806405563</v>
+        <v>0.2284713806407694</v>
       </c>
       <c r="E4">
-        <v>0.3652562126827732</v>
+        <v>0.3652562126827874</v>
       </c>
       <c r="F4">
-        <v>7.739675860930589</v>
+        <v>7.739675860930333</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.441966574882052</v>
+        <v>0.4419665748820307</v>
       </c>
       <c r="J4">
-        <v>19.96715438603707</v>
+        <v>19.96715438603678</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1432713166617532</v>
+        <v>0.1432713166614548</v>
       </c>
       <c r="D5">
-        <v>0.2038840656886833</v>
+        <v>0.2038840656885128</v>
       </c>
       <c r="E5">
-        <v>0.3427880320353793</v>
+        <v>0.3427880320353509</v>
       </c>
       <c r="F5">
-        <v>7.135588052334043</v>
+        <v>7.135588052333901</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0.4112609315635751</v>
       </c>
       <c r="J5">
-        <v>18.83836433125089</v>
+        <v>18.83836433125072</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1417044510010044</v>
+        <v>0.1417044510015302</v>
       </c>
       <c r="D6">
-        <v>0.2000673247846407</v>
+        <v>0.2000673247846123</v>
       </c>
       <c r="E6">
-        <v>0.3391828491077646</v>
+        <v>0.3391828491077149</v>
       </c>
       <c r="F6">
-        <v>7.04042716522531</v>
+        <v>7.040427165225537</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4063768042595584</v>
+        <v>0.4063768042595797</v>
       </c>
       <c r="J6">
-        <v>18.65604527853549</v>
+        <v>18.65604527853566</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1529196788700204</v>
+        <v>0.1529196788698499</v>
       </c>
       <c r="D7">
-        <v>0.2281202912074036</v>
+        <v>0.2281202912072189</v>
       </c>
       <c r="E7">
         <v>0.3649439985904053</v>
       </c>
       <c r="F7">
-        <v>7.731152180150389</v>
+        <v>7.731152180150247</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4415367474468681</v>
+        <v>0.4415367474468468</v>
       </c>
       <c r="J7">
-        <v>19.95155709602494</v>
+        <v>19.95155709602489</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D8">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E8">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F8">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J8">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D9">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E9">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F9">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J9">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D10">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E10">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F10">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J10">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D11">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E11">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F11">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J11">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D12">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E12">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F12">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J12">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D13">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E13">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F13">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J13">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D14">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E14">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F14">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J14">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D15">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E15">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F15">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J15">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D16">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E16">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F16">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J16">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D17">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E17">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F17">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J17">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D18">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E18">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F18">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J18">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D19">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E19">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F19">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J19">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D20">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E20">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F20">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J20">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D21">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E21">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F21">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J21">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D22">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E22">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F22">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J22">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D23">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E23">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F23">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J23">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D24">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E24">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F24">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J24">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2172301539967378</v>
+        <v>0.2172301539966099</v>
       </c>
       <c r="D25">
-        <v>0.4210524577685391</v>
+        <v>0.4210524577687806</v>
       </c>
       <c r="E25">
-        <v>0.5109618760244743</v>
+        <v>0.510961876024524</v>
       </c>
       <c r="F25">
-        <v>12.10312317677295</v>
+        <v>12.10312317677261</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6522669430692218</v>
+        <v>0.6522669430692289</v>
       </c>
       <c r="J25">
-        <v>26.96794381613438</v>
+        <v>26.96794381613427</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2433290707065936</v>
+        <v>0.2433290707069489</v>
       </c>
       <c r="D2">
         <v>0.514670399294431</v>
       </c>
       <c r="E2">
-        <v>0.5695795069936409</v>
+        <v>0.5695795069936693</v>
       </c>
       <c r="F2">
-        <v>14.06949242927794</v>
+        <v>14.06949242927791</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7424239394151826</v>
+        <v>0.7424239394151755</v>
       </c>
       <c r="J2">
-        <v>29.61966176847068</v>
+        <v>29.61966176847085</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1802318614985126</v>
+        <v>0.1802318614983704</v>
       </c>
       <c r="D3">
-        <v>0.3034564052870792</v>
+        <v>0.3034564052874629</v>
       </c>
       <c r="E3">
-        <v>0.427281961953085</v>
+        <v>0.4272819619530424</v>
       </c>
       <c r="F3">
-        <v>9.504055993927096</v>
+        <v>9.504055993926983</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5291152491862903</v>
+        <v>0.5291152491863116</v>
       </c>
       <c r="J3">
-        <v>23.01601884344194</v>
+        <v>23.01601884344188</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1530558703583438</v>
+        <v>0.1530558703579743</v>
       </c>
       <c r="D4">
-        <v>0.2284713806407694</v>
+        <v>0.2284713806405563</v>
       </c>
       <c r="E4">
-        <v>0.3652562126827874</v>
+        <v>0.3652562126827732</v>
       </c>
       <c r="F4">
-        <v>7.739675860930333</v>
+        <v>7.739675860930589</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4419665748820307</v>
+        <v>0.441966574882052</v>
       </c>
       <c r="J4">
-        <v>19.96715438603678</v>
+        <v>19.96715438603707</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1432713166614548</v>
+        <v>0.1432713166617532</v>
       </c>
       <c r="D5">
-        <v>0.2038840656885128</v>
+        <v>0.2038840656886833</v>
       </c>
       <c r="E5">
-        <v>0.3427880320353509</v>
+        <v>0.3427880320353793</v>
       </c>
       <c r="F5">
-        <v>7.135588052333901</v>
+        <v>7.135588052334043</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0.4112609315635751</v>
       </c>
       <c r="J5">
-        <v>18.83836433125072</v>
+        <v>18.83836433125089</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1417044510015302</v>
+        <v>0.1417044510010044</v>
       </c>
       <c r="D6">
-        <v>0.2000673247846123</v>
+        <v>0.2000673247846407</v>
       </c>
       <c r="E6">
-        <v>0.3391828491077149</v>
+        <v>0.3391828491077646</v>
       </c>
       <c r="F6">
-        <v>7.040427165225537</v>
+        <v>7.04042716522531</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4063768042595797</v>
+        <v>0.4063768042595584</v>
       </c>
       <c r="J6">
-        <v>18.65604527853566</v>
+        <v>18.65604527853549</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1529196788698499</v>
+        <v>0.1529196788700204</v>
       </c>
       <c r="D7">
-        <v>0.2281202912072189</v>
+        <v>0.2281202912074036</v>
       </c>
       <c r="E7">
         <v>0.3649439985904053</v>
       </c>
       <c r="F7">
-        <v>7.731152180150247</v>
+        <v>7.731152180150389</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4415367474468468</v>
+        <v>0.4415367474468681</v>
       </c>
       <c r="J7">
-        <v>19.95155709602489</v>
+        <v>19.95155709602494</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D8">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E8">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F8">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J8">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D9">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E9">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F9">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J9">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D10">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E10">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F10">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J10">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D11">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E11">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F11">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J11">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D12">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E12">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F12">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J12">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D13">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E13">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F13">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J13">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D14">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E14">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F14">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J14">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D15">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E15">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F15">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J15">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D16">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E16">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F16">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J16">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D17">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E17">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F17">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J17">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D18">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E18">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F18">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J18">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D19">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E19">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F19">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J19">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D20">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E20">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F20">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J20">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D21">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E21">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F21">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J21">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D22">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E22">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F22">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J22">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D23">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E23">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F23">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J23">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D24">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E24">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F24">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J24">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2172301539966099</v>
+        <v>0.2172301539967378</v>
       </c>
       <c r="D25">
-        <v>0.4210524577687806</v>
+        <v>0.4210524577685391</v>
       </c>
       <c r="E25">
-        <v>0.510961876024524</v>
+        <v>0.5109618760244743</v>
       </c>
       <c r="F25">
-        <v>12.10312317677261</v>
+        <v>12.10312317677295</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6522669430692289</v>
+        <v>0.6522669430692218</v>
       </c>
       <c r="J25">
-        <v>26.96794381613427</v>
+        <v>26.96794381613438</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2433290707069489</v>
+        <v>0.2373124617260061</v>
       </c>
       <c r="D2">
-        <v>0.514670399294431</v>
+        <v>0.4783340219433256</v>
       </c>
       <c r="E2">
-        <v>0.5695795069936693</v>
+        <v>0.5570325897289052</v>
       </c>
       <c r="F2">
-        <v>14.06949242927791</v>
+        <v>13.49286095208001</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0004932337130963583</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7424239394151755</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>29.61966176847085</v>
+        <v>0.7198484980163897</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>29.03958404413567</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1802318614983704</v>
+        <v>0.1772619732975897</v>
       </c>
       <c r="D3">
-        <v>0.3034564052874629</v>
+        <v>0.2844845767250632</v>
       </c>
       <c r="E3">
-        <v>0.4272819619530424</v>
+        <v>0.4211939398272762</v>
       </c>
       <c r="F3">
-        <v>9.504055993926983</v>
+        <v>9.229952101289058</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0005674237853488691</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5291152491863116</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>23.01601884344188</v>
+        <v>0.5184244541665919</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>22.70833352431049</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1530558703579743</v>
+        <v>0.1508260455322556</v>
       </c>
       <c r="D4">
-        <v>0.2284713806405563</v>
+        <v>0.2142874612551395</v>
       </c>
       <c r="E4">
-        <v>0.3652562126827732</v>
+        <v>0.3606754079830239</v>
       </c>
       <c r="F4">
-        <v>7.739675860930589</v>
+        <v>7.544510539439528</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006028987882718705</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.441966574882052</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>19.96715438603707</v>
+        <v>0.4341364949797395</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.73026600392603</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1432713166617532</v>
+        <v>0.1412652639781555</v>
       </c>
       <c r="D5">
-        <v>0.2038840656886833</v>
+        <v>0.1912405647594113</v>
       </c>
       <c r="E5">
-        <v>0.3427880320353793</v>
+        <v>0.3386552448868372</v>
       </c>
       <c r="F5">
-        <v>7.135588052334043</v>
+        <v>6.965175233734954</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006162558114222172</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4112609315635751</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>18.83836433125089</v>
+        <v>0.4042941393963133</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.62362608265954</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1417044510010044</v>
+        <v>0.1397325340037696</v>
       </c>
       <c r="D6">
-        <v>0.2000673247846407</v>
+        <v>0.1876636213642513</v>
       </c>
       <c r="E6">
-        <v>0.3391828491077646</v>
+        <v>0.335118041234459</v>
       </c>
       <c r="F6">
-        <v>7.04042716522531</v>
+        <v>6.873836190127378</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006184259995803108</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4063768042595584</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>18.65604527853549</v>
+        <v>0.399541662181683</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.44472431628731</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1529196788700204</v>
+        <v>0.1506931016199786</v>
       </c>
       <c r="D7">
-        <v>0.2281202912074036</v>
+        <v>0.2139583615861085</v>
       </c>
       <c r="E7">
-        <v>0.3649439985904053</v>
+        <v>0.3603697243936139</v>
       </c>
       <c r="F7">
-        <v>7.731152180150389</v>
+        <v>7.536342595490652</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006030824589887434</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4415367474468681</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>19.95155709602494</v>
+        <v>0.4337192005322166</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.71498725195414</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D8">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E8">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F8">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D9">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E9">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F9">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D10">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E10">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F10">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D11">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E11">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F11">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D12">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E12">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F12">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D13">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E13">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F13">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D14">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E14">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F14">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D15">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E15">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F15">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D16">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E16">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F16">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D17">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E17">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F17">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D18">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E18">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F18">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D19">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E19">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F19">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D20">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E20">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F20">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D21">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E21">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F21">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D22">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E22">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F22">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D23">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E23">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F23">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D24">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E24">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F24">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2172301539967378</v>
+        <v>0.2128102611447673</v>
       </c>
       <c r="D25">
-        <v>0.4210524577685391</v>
+        <v>0.3935205314671464</v>
       </c>
       <c r="E25">
-        <v>0.5109618760244743</v>
+        <v>0.5018380111446703</v>
       </c>
       <c r="F25">
-        <v>12.10312317677295</v>
+        <v>11.68219361400381</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0005225643875603127</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6522669430692218</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>26.96794381613438</v>
+        <v>0.6359396943921425</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>26.5281955303152</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1407560486217818</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1058326230306577</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.06697728735886699</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.7350853870767793</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0008047286778896918</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,137 +445,1103 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.06226174648331195</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.65598597574342</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7994794523502264</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.742717849102462</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.1217393200146546</v>
+      </c>
+      <c r="D3">
+        <v>0.09584806215397634</v>
+      </c>
+      <c r="E3">
+        <v>0.06369706932577657</v>
+      </c>
+      <c r="F3">
+        <v>0.7134683210519341</v>
+      </c>
+      <c r="G3">
+        <v>0.0008097627613137878</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.06223119318664061</v>
+      </c>
+      <c r="K3">
+        <v>3.178214644289085</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.6961174723480994</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.714240380830461</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.1101773599387883</v>
+      </c>
+      <c r="D4">
+        <v>0.08978031316561896</v>
+      </c>
+      <c r="E4">
+        <v>0.06178172222073641</v>
+      </c>
+      <c r="F4">
+        <v>0.7023264659063457</v>
+      </c>
+      <c r="G4">
+        <v>0.0008129487633579124</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.06237239132063621</v>
+      </c>
+      <c r="K4">
+        <v>2.885497211884683</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.6329302098791487</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.702827685176203</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.1054906147148102</v>
+      </c>
+      <c r="D5">
+        <v>0.08732213962586144</v>
+      </c>
+      <c r="E5">
+        <v>0.06102477982205379</v>
+      </c>
+      <c r="F5">
+        <v>0.6982924222384668</v>
+      </c>
+      <c r="G5">
+        <v>0.0008142715644328113</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.06246832911481448</v>
+      </c>
+      <c r="K5">
+        <v>2.766320363777709</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.6072378193555394</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.69961893862876</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.1047137747300866</v>
+      </c>
+      <c r="D6">
+        <v>0.08691479983982475</v>
+      </c>
+      <c r="E6">
+        <v>0.06090047897642847</v>
+      </c>
+      <c r="F6">
+        <v>0.697652322714049</v>
+      </c>
+      <c r="G6">
+        <v>0.0008144927093252818</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.06248652724765336</v>
+      </c>
+      <c r="K6">
+        <v>2.746536203098998</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.6029746976176966</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.699170829394063</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.1101140572612422</v>
+      </c>
+      <c r="D7">
+        <v>0.08974710440595857</v>
+      </c>
+      <c r="E7">
+        <v>0.06177141996509405</v>
+      </c>
+      <c r="F7">
+        <v>0.7022700489992388</v>
+      </c>
+      <c r="G7">
+        <v>0.0008129665033394812</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.06237353203481533</v>
+      </c>
+      <c r="K7">
+        <v>2.883889580570951</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.6325834991239034</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.702778681015417</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.1341729060186339</v>
+      </c>
+      <c r="D8">
+        <v>0.1023760910003588</v>
+      </c>
+      <c r="E8">
+        <v>0.06582500534316793</v>
+      </c>
+      <c r="F8">
+        <v>0.7271712027789405</v>
+      </c>
+      <c r="G8">
+        <v>0.0008064450588875656</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.06221688225675948</v>
+      </c>
+      <c r="K8">
+        <v>3.491085760784756</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.7637746432720789</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.731585767714932</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.1824504075504905</v>
+      </c>
+      <c r="D9">
+        <v>0.1277047122794954</v>
+      </c>
+      <c r="E9">
+        <v>0.07461772503737407</v>
+      </c>
+      <c r="F9">
+        <v>0.7943351222170065</v>
+      </c>
+      <c r="G9">
+        <v>0.0007943828646111787</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.06326662319358434</v>
+      </c>
+      <c r="K9">
+        <v>4.689441980977733</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.023877503619666</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1.840354022323766</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.2188765564276309</v>
+      </c>
+      <c r="D10">
+        <v>0.1467560808642361</v>
+      </c>
+      <c r="E10">
+        <v>0.08168258021958152</v>
+      </c>
+      <c r="F10">
+        <v>0.8569861874269691</v>
+      </c>
+      <c r="G10">
+        <v>0.0007859218435459778</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.06499605347266169</v>
+      </c>
+      <c r="K10">
+        <v>5.57854314954767</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.217680692876201</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1.958260939594766</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.2357251423844247</v>
+      </c>
+      <c r="D11">
+        <v>0.1555433156024435</v>
+      </c>
+      <c r="E11">
+        <v>0.08504981038561965</v>
+      </c>
+      <c r="F11">
+        <v>0.8888941665868941</v>
+      </c>
+      <c r="G11">
+        <v>0.0007821497638875605</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.06602262663095715</v>
+      </c>
+      <c r="K11">
+        <v>5.98588800258949</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.30667384996471</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.021639433183253</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.2421515476225267</v>
+      </c>
+      <c r="D12">
+        <v>0.1588903389814504</v>
+      </c>
+      <c r="E12">
+        <v>0.08634893295374368</v>
+      </c>
+      <c r="F12">
+        <v>0.9015141947611482</v>
+      </c>
+      <c r="G12">
+        <v>0.00078073153318078</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.066448755427718</v>
+      </c>
+      <c r="K12">
+        <v>6.140643278146342</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.340514367517258</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.047176616785549</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.2407653463597512</v>
+      </c>
+      <c r="D13">
+        <v>0.1581685948467566</v>
+      </c>
+      <c r="E13">
+        <v>0.08606804201076912</v>
+      </c>
+      <c r="F13">
+        <v>0.8987715601389255</v>
+      </c>
+      <c r="G13">
+        <v>0.0007810365369277282</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.06635526930481461</v>
+      </c>
+      <c r="K13">
+        <v>6.107290129656008</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.333219588347617</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.04160606478186</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.2362528829793433</v>
+      </c>
+      <c r="D14">
+        <v>0.1558182737550595</v>
+      </c>
+      <c r="E14">
+        <v>0.08515619661142892</v>
+      </c>
+      <c r="F14">
+        <v>0.8899213734736122</v>
+      </c>
+      <c r="G14">
+        <v>0.0007820328866059475</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.06605691770523592</v>
+      </c>
+      <c r="K14">
+        <v>5.998609210148004</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.309454980581464</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.023708763122812</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.2334950804041682</v>
+      </c>
+      <c r="D15">
+        <v>0.1543812387432837</v>
+      </c>
+      <c r="E15">
+        <v>0.0846008550316526</v>
+      </c>
+      <c r="F15">
+        <v>0.8845718032812755</v>
+      </c>
+      <c r="G15">
+        <v>0.0007826444771776879</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.06587912799496465</v>
+      </c>
+      <c r="K15">
+        <v>5.932107193153058</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.294917463574563</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.012950576068675</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.2177815780918309</v>
+      </c>
+      <c r="D16">
+        <v>0.1461844210226246</v>
+      </c>
+      <c r="E16">
+        <v>0.08146577498884966</v>
+      </c>
+      <c r="F16">
+        <v>0.8549734356361256</v>
+      </c>
+      <c r="G16">
+        <v>0.000786169831132503</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.06493403299988998</v>
+      </c>
+      <c r="K16">
+        <v>5.551987605551517</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.211883276203238</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1.954326417203504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.2082173527787745</v>
+      </c>
+      <c r="D17">
+        <v>0.141188308071051</v>
+      </c>
+      <c r="E17">
+        <v>0.07958314205825801</v>
+      </c>
+      <c r="F17">
+        <v>0.8377208745301203</v>
+      </c>
+      <c r="G17">
+        <v>0.0007883516076868102</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.06441766415678174</v>
+      </c>
+      <c r="K17">
+        <v>5.31959593363797</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.161171870862617</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1.920950818066245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.2027420421417503</v>
+      </c>
+      <c r="D18">
+        <v>0.1383258957744715</v>
+      </c>
+      <c r="E18">
+        <v>0.07851461229705592</v>
+      </c>
+      <c r="F18">
+        <v>0.8281153533601042</v>
+      </c>
+      <c r="G18">
+        <v>0.0007896138011417992</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.06414305050727265</v>
+      </c>
+      <c r="K18">
+        <v>5.18619656447845</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.132080860138103</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1.902662195971516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.2008924426554159</v>
+      </c>
+      <c r="D19">
+        <v>0.1373585970486886</v>
+      </c>
+      <c r="E19">
+        <v>0.07815522704794731</v>
+      </c>
+      <c r="F19">
+        <v>0.8249162822685037</v>
+      </c>
+      <c r="G19">
+        <v>0.0007900424364748637</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.06405383186246638</v>
+      </c>
+      <c r="K19">
+        <v>5.141073014789299</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.122243726485934</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1.896621996591563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.2092327695291232</v>
+      </c>
+      <c r="D20">
+        <v>0.1417189767379909</v>
+      </c>
+      <c r="E20">
+        <v>0.07978205668385385</v>
+      </c>
+      <c r="F20">
+        <v>0.8395242301832866</v>
+      </c>
+      <c r="G20">
+        <v>0.0007881186052008333</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.06447029520978731</v>
+      </c>
+      <c r="K20">
+        <v>5.34430626884307</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.166562085302857</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1.924408769370757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.2375769965313168</v>
+      </c>
+      <c r="D21">
+        <v>0.1565080731738817</v>
+      </c>
+      <c r="E21">
+        <v>0.08542335915625188</v>
+      </c>
+      <c r="F21">
+        <v>0.8925059129701651</v>
+      </c>
+      <c r="G21">
+        <v>0.0007817399658099715</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.06614351176905942</v>
+      </c>
+      <c r="K21">
+        <v>6.030517053803351</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.316431223505134</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.028922771760904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.2563742185680269</v>
+      </c>
+      <c r="D22">
+        <v>0.1662883242313313</v>
+      </c>
+      <c r="E22">
+        <v>0.08925135113488025</v>
+      </c>
+      <c r="F22">
+        <v>0.9302884696940481</v>
+      </c>
+      <c r="G22">
+        <v>0.0007776299955180142</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.0674565099961022</v>
+      </c>
+      <c r="K22">
+        <v>6.481971596324911</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.415210988098423</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.106260389011112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.2463146472303208</v>
+      </c>
+      <c r="D23">
+        <v>0.1610571677622232</v>
+      </c>
+      <c r="E23">
+        <v>0.08719467725870089</v>
+      </c>
+      <c r="F23">
+        <v>0.9098177604881528</v>
+      </c>
+      <c r="G23">
+        <v>0.0007798184907278438</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.06673463395701162</v>
+      </c>
+      <c r="K23">
+        <v>6.240718503753499</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.3624067479102</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.064109225599822</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.2087736275364591</v>
+      </c>
+      <c r="D24">
+        <v>0.1414790306956348</v>
+      </c>
+      <c r="E24">
+        <v>0.07969208447912735</v>
+      </c>
+      <c r="F24">
+        <v>0.8387079610402282</v>
+      </c>
+      <c r="G24">
+        <v>0.0007882239211248684</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.06444643161158936</v>
+      </c>
+      <c r="K24">
+        <v>5.333134092091086</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.1641249726746</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1.92284263813994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.1692441493967038</v>
+      </c>
+      <c r="D25">
+        <v>0.1207825981162642</v>
+      </c>
+      <c r="E25">
+        <v>0.0721398006693228</v>
+      </c>
+      <c r="F25">
+        <v>0.7739928605857784</v>
+      </c>
+      <c r="G25">
+        <v>0.0007975723809539493</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.06282445028874761</v>
+      </c>
+      <c r="K25">
+        <v>4.364043055898378</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.9531131358114706</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.804729024826884</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1407560486217818</v>
+        <v>0.04847177082993426</v>
       </c>
       <c r="D2">
-        <v>0.1058326230306577</v>
+        <v>0.1534718802712476</v>
       </c>
       <c r="E2">
-        <v>0.06697728735886699</v>
+        <v>0.1364174140543746</v>
       </c>
       <c r="F2">
-        <v>0.7350853870767793</v>
+        <v>1.52878314466372</v>
       </c>
       <c r="G2">
-        <v>0.0008047286778896918</v>
+        <v>0.002472927089828936</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06226174648331195</v>
+        <v>0.1577116572115003</v>
       </c>
       <c r="K2">
-        <v>3.65598597574342</v>
+        <v>1.376394238103046</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7994794523502264</v>
+        <v>0.4331660064745222</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.742717849102462</v>
+        <v>3.812364515691229</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1217393200146546</v>
+        <v>0.04308372056300414</v>
       </c>
       <c r="D3">
-        <v>0.09584806215397634</v>
+        <v>0.1511756676351581</v>
       </c>
       <c r="E3">
-        <v>0.06369706932577657</v>
+        <v>0.1364779707666841</v>
       </c>
       <c r="F3">
-        <v>0.7134683210519341</v>
+        <v>1.53966367904944</v>
       </c>
       <c r="G3">
-        <v>0.0008097627613137878</v>
+        <v>0.002476190568244493</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06223119318664061</v>
+        <v>0.1591681047621876</v>
       </c>
       <c r="K3">
-        <v>3.178214644289085</v>
+        <v>1.22834319122228</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6961174723480994</v>
+        <v>0.4031164499780644</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.714240380830461</v>
+        <v>3.850359260727288</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1101773599387883</v>
+        <v>0.03979032310876107</v>
       </c>
       <c r="D4">
-        <v>0.08978031316561896</v>
+        <v>0.1498065855606114</v>
       </c>
       <c r="E4">
-        <v>0.06178172222073641</v>
+        <v>0.1365755322531648</v>
       </c>
       <c r="F4">
-        <v>0.7023264659063457</v>
+        <v>1.547393368687544</v>
       </c>
       <c r="G4">
-        <v>0.0008129487633579124</v>
+        <v>0.002478300271214605</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06237239132063621</v>
+        <v>0.1601512700977636</v>
       </c>
       <c r="K4">
-        <v>2.885497211884683</v>
+        <v>1.137335566993244</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6329302098791487</v>
+        <v>0.384738083723235</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.702827685176203</v>
+        <v>3.876545931048128</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1054906147148102</v>
+        <v>0.03845195580052518</v>
       </c>
       <c r="D5">
-        <v>0.08732213962586144</v>
+        <v>0.1492589943769715</v>
       </c>
       <c r="E5">
-        <v>0.06102477982205379</v>
+        <v>0.1366304877349389</v>
       </c>
       <c r="F5">
-        <v>0.6982924222384668</v>
+        <v>1.550806723961344</v>
       </c>
       <c r="G5">
-        <v>0.0008142715644328113</v>
+        <v>0.002479186706594536</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06246832911481448</v>
+        <v>0.160574259501221</v>
       </c>
       <c r="K5">
-        <v>2.766320363777709</v>
+        <v>1.100225151047198</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6072378193555394</v>
+        <v>0.3772673028289972</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.69961893862876</v>
+        <v>3.887934516381975</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1047137747300866</v>
+        <v>0.0382299448292116</v>
       </c>
       <c r="D6">
-        <v>0.08691479983982475</v>
+        <v>0.1491686924377262</v>
       </c>
       <c r="E6">
-        <v>0.06090047897642847</v>
+        <v>0.1366405314544963</v>
       </c>
       <c r="F6">
-        <v>0.697652322714049</v>
+        <v>1.55138941056552</v>
       </c>
       <c r="G6">
-        <v>0.0008144927093252818</v>
+        <v>0.002479335514321068</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06248652724765336</v>
+        <v>0.1606458455574682</v>
       </c>
       <c r="K6">
-        <v>2.746536203098998</v>
+        <v>1.094061600475442</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6029746976176966</v>
+        <v>0.3760279178164083</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.699170829394063</v>
+        <v>3.889868867689344</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1101140572612422</v>
+        <v>0.03977225839321363</v>
       </c>
       <c r="D7">
-        <v>0.08974710440595857</v>
+        <v>0.1497991586832228</v>
       </c>
       <c r="E7">
-        <v>0.06177141996509405</v>
+        <v>0.1365762118435345</v>
       </c>
       <c r="F7">
-        <v>0.7022700489992388</v>
+        <v>1.547438336164717</v>
       </c>
       <c r="G7">
-        <v>0.0008129665033394812</v>
+        <v>0.002478312117620996</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06237353203481533</v>
+        <v>0.1601568842378818</v>
       </c>
       <c r="K7">
-        <v>2.883889580570951</v>
+        <v>1.136835177729751</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6325834991239034</v>
+        <v>0.3846372545042129</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.702778681015417</v>
+        <v>3.87669661889089</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1341729060186339</v>
+        <v>0.04661086479130461</v>
       </c>
       <c r="D8">
-        <v>0.1023760910003588</v>
+        <v>0.1526717132156463</v>
       </c>
       <c r="E8">
-        <v>0.06582500534316793</v>
+        <v>0.1364257712195496</v>
       </c>
       <c r="F8">
-        <v>0.7271712027789405</v>
+        <v>1.532316830454064</v>
       </c>
       <c r="G8">
-        <v>0.0008064450588875656</v>
+        <v>0.002474030403928094</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06221688225675948</v>
+        <v>0.1581953810133889</v>
       </c>
       <c r="K8">
-        <v>3.491085760784756</v>
+        <v>1.325368903839205</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7637746432720789</v>
+        <v>0.422790167545152</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.731585767714932</v>
+        <v>3.824871197272984</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1824504075504905</v>
+        <v>0.06014127571451411</v>
       </c>
       <c r="D9">
-        <v>0.1277047122794954</v>
+        <v>0.1586262487876979</v>
       </c>
       <c r="E9">
-        <v>0.07461772503737407</v>
+        <v>0.1366093033082194</v>
       </c>
       <c r="F9">
-        <v>0.7943351222170065</v>
+        <v>1.511002984422475</v>
       </c>
       <c r="G9">
-        <v>0.0007943828646111787</v>
+        <v>0.002466470628376524</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06326662319358434</v>
+        <v>0.1550548931259712</v>
       </c>
       <c r="K9">
-        <v>4.689441980977733</v>
+        <v>1.694191518976652</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.023877503619666</v>
+        <v>0.4981671073830825</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.840354022323766</v>
+        <v>3.745976384196638</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2188765564276309</v>
+        <v>0.07015866684930927</v>
       </c>
       <c r="D10">
-        <v>0.1467560808642361</v>
+        <v>0.1631945441702811</v>
       </c>
       <c r="E10">
-        <v>0.08168258021958152</v>
+        <v>0.137035366973798</v>
       </c>
       <c r="F10">
-        <v>0.8569861874269691</v>
+        <v>1.500451212727739</v>
       </c>
       <c r="G10">
-        <v>0.0007859218435459778</v>
+        <v>0.002461421270909427</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06499605347266169</v>
+        <v>0.1531788942533083</v>
       </c>
       <c r="K10">
-        <v>5.57854314954767</v>
+        <v>1.964557874944603</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.217680692876201</v>
+        <v>0.5538752827900737</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.958260939594766</v>
+        <v>3.701956544225879</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2357251423844247</v>
+        <v>0.07473327775781513</v>
       </c>
       <c r="D11">
-        <v>0.1555433156024435</v>
+        <v>0.1653143166412434</v>
       </c>
       <c r="E11">
-        <v>0.08504981038561965</v>
+        <v>0.1372923388457181</v>
       </c>
       <c r="F11">
-        <v>0.8888941665868941</v>
+        <v>1.496765169692225</v>
       </c>
       <c r="G11">
-        <v>0.0007821497638875605</v>
+        <v>0.002459232686670313</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06602262663095715</v>
+        <v>0.152419313293791</v>
       </c>
       <c r="K11">
-        <v>5.98588800258949</v>
+        <v>2.087411152086247</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.30667384996471</v>
+        <v>0.5792876321584117</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.021639433183253</v>
+        <v>3.684976967902969</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2421515476225267</v>
+        <v>0.07646814425078219</v>
       </c>
       <c r="D12">
-        <v>0.1588903389814504</v>
+        <v>0.1661229546339058</v>
       </c>
       <c r="E12">
-        <v>0.08634893295374368</v>
+        <v>0.1373987175955556</v>
       </c>
       <c r="F12">
-        <v>0.9015141947611482</v>
+        <v>1.495529957893027</v>
       </c>
       <c r="G12">
-        <v>0.00078073153318078</v>
+        <v>0.002458419429377214</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.066448755427718</v>
+        <v>0.1521451881140621</v>
       </c>
       <c r="K12">
-        <v>6.140643278146342</v>
+        <v>2.13391115510268</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.340514367517258</v>
+        <v>0.5889204528242402</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.047176616785549</v>
+        <v>3.67898663294099</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2407653463597512</v>
+        <v>0.07609439546843078</v>
       </c>
       <c r="D13">
-        <v>0.1581685948467566</v>
+        <v>0.1659485373624108</v>
       </c>
       <c r="E13">
-        <v>0.08606804201076912</v>
+        <v>0.1373754038734027</v>
       </c>
       <c r="F13">
-        <v>0.8987715601389255</v>
+        <v>1.495788832886092</v>
       </c>
       <c r="G13">
-        <v>0.0007810365369277282</v>
+        <v>0.002458593890249892</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06635526930481461</v>
+        <v>0.1522036246169236</v>
       </c>
       <c r="K13">
-        <v>6.107290129656008</v>
+        <v>2.123897552494725</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.333219588347617</v>
+        <v>0.5868454269281642</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.04160606478186</v>
+        <v>3.680257188786584</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2362528829793433</v>
+        <v>0.07487595482037079</v>
       </c>
       <c r="D14">
-        <v>0.1558182737550595</v>
+        <v>0.1653807253502464</v>
       </c>
       <c r="E14">
-        <v>0.08515619661142892</v>
+        <v>0.1373009090016772</v>
       </c>
       <c r="F14">
-        <v>0.8899213734736122</v>
+        <v>1.496660326755631</v>
       </c>
       <c r="G14">
-        <v>0.0007820328866059475</v>
+        <v>0.00245916546916635</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06605691770523592</v>
+        <v>0.1523964899395196</v>
       </c>
       <c r="K14">
-        <v>5.998609210148004</v>
+        <v>2.09123718526331</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.309454980581464</v>
+        <v>0.5800799377341406</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.023708763122812</v>
+        <v>3.684475323055636</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2334950804041682</v>
+        <v>0.0741299588823523</v>
       </c>
       <c r="D15">
-        <v>0.1543812387432837</v>
+        <v>0.1650336940750918</v>
       </c>
       <c r="E15">
-        <v>0.0846008550316526</v>
+        <v>0.1372564594405148</v>
       </c>
       <c r="F15">
-        <v>0.8845718032812755</v>
+        <v>1.49721507086943</v>
       </c>
       <c r="G15">
-        <v>0.0007826444771776879</v>
+        <v>0.002459517595673436</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06587912799496465</v>
+        <v>0.1525163857401708</v>
       </c>
       <c r="K15">
-        <v>5.932107193153058</v>
+        <v>2.071228858922325</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.294917463574563</v>
+        <v>0.5759371333909229</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.012950576068675</v>
+        <v>3.687116329197011</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2177815780918309</v>
+        <v>0.06986006235752029</v>
       </c>
       <c r="D16">
-        <v>0.1461844210226246</v>
+        <v>0.163056844613422</v>
       </c>
       <c r="E16">
-        <v>0.08146577498884966</v>
+        <v>0.1370198430109539</v>
       </c>
       <c r="F16">
-        <v>0.8549734356361256</v>
+        <v>1.500714556902651</v>
       </c>
       <c r="G16">
-        <v>0.000786169831132503</v>
+        <v>0.002461566474749905</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06493403299988998</v>
+        <v>0.153230424302194</v>
       </c>
       <c r="K16">
-        <v>5.551987605551517</v>
+        <v>1.956526175969657</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.211883276203238</v>
+        <v>0.5522159077898152</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.954326417203504</v>
+        <v>3.703127611107845</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2082173527787745</v>
+        <v>0.06724515572939538</v>
       </c>
       <c r="D17">
-        <v>0.141188308071051</v>
+        <v>0.1618547312415473</v>
       </c>
       <c r="E17">
-        <v>0.07958314205825801</v>
+        <v>0.1368908528014785</v>
       </c>
       <c r="F17">
-        <v>0.8377208745301203</v>
+        <v>1.503147001556599</v>
       </c>
       <c r="G17">
-        <v>0.0007883516076868102</v>
+        <v>0.002462851104640824</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06441766415678174</v>
+        <v>0.1536925079603755</v>
       </c>
       <c r="K17">
-        <v>5.31959593363797</v>
+        <v>1.886123042632164</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.161171870862617</v>
+        <v>0.5376814465795974</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.920950818066245</v>
+        <v>3.713731087932558</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2027420421417503</v>
+        <v>0.06574279049955578</v>
       </c>
       <c r="D18">
-        <v>0.1383258957744715</v>
+        <v>0.1611672296053968</v>
       </c>
       <c r="E18">
-        <v>0.07851461229705592</v>
+        <v>0.1368226060675966</v>
       </c>
       <c r="F18">
-        <v>0.8281153533601042</v>
+        <v>1.504650910293307</v>
       </c>
       <c r="G18">
-        <v>0.0007896138011417992</v>
+        <v>0.002463600196846511</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06414305050727265</v>
+        <v>0.1539671158493441</v>
       </c>
       <c r="K18">
-        <v>5.18619656447845</v>
+        <v>1.845616179567799</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.132080860138103</v>
+        <v>0.529328261491969</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.902662195971516</v>
+        <v>3.72011646952123</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2008924426554159</v>
+        <v>0.06523439984303536</v>
       </c>
       <c r="D19">
-        <v>0.1373585970486886</v>
+        <v>0.1609351288534526</v>
       </c>
       <c r="E19">
-        <v>0.07815522704794731</v>
+        <v>0.1368005203361733</v>
       </c>
       <c r="F19">
-        <v>0.8249162822685037</v>
+        <v>1.505178099987447</v>
       </c>
       <c r="G19">
-        <v>0.0007900424364748637</v>
+        <v>0.002463855581799068</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06405383186246638</v>
+        <v>0.1540616092330929</v>
       </c>
       <c r="K19">
-        <v>5.141073014789299</v>
+        <v>1.831899109230847</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.122243726485934</v>
+        <v>0.5265011717461903</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.896621996591563</v>
+        <v>3.722327616504884</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2092327695291232</v>
+        <v>0.06752334504720636</v>
       </c>
       <c r="D20">
-        <v>0.1417189767379909</v>
+        <v>0.1619822927727768</v>
       </c>
       <c r="E20">
-        <v>0.07978205668385385</v>
+        <v>0.1369039688315112</v>
       </c>
       <c r="F20">
-        <v>0.8395242301832866</v>
+        <v>1.502877211022238</v>
       </c>
       <c r="G20">
-        <v>0.0007881186052008333</v>
+        <v>0.002462713297971934</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06447029520978731</v>
+        <v>0.1536424043893021</v>
       </c>
       <c r="K20">
-        <v>5.34430626884307</v>
+        <v>1.893618920575193</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.166562085302857</v>
+        <v>0.5392279792658883</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.924408769370757</v>
+        <v>3.712572662394621</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2375769965313168</v>
+        <v>0.07523377069884418</v>
       </c>
       <c r="D21">
-        <v>0.1565080731738817</v>
+        <v>0.1655473451468339</v>
       </c>
       <c r="E21">
-        <v>0.08542335915625188</v>
+        <v>0.1373225439164933</v>
       </c>
       <c r="F21">
-        <v>0.8925059129701651</v>
+        <v>1.496399985557403</v>
       </c>
       <c r="G21">
-        <v>0.0007817399658099715</v>
+        <v>0.002458997162076963</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06614351176905942</v>
+        <v>0.1523394738540524</v>
       </c>
       <c r="K21">
-        <v>6.030517053803351</v>
+        <v>2.100830936555553</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.316431223505134</v>
+        <v>0.5820668654813801</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.028922771760904</v>
+        <v>3.683224415498017</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2563742185680269</v>
+        <v>0.08028791533433832</v>
       </c>
       <c r="D22">
-        <v>0.1662883242313313</v>
+        <v>0.1679118275230422</v>
       </c>
       <c r="E22">
-        <v>0.08925135113488025</v>
+        <v>0.1376489628405935</v>
       </c>
       <c r="F22">
-        <v>0.9302884696940481</v>
+        <v>1.493103112490871</v>
       </c>
       <c r="G22">
-        <v>0.0007776299955180142</v>
+        <v>0.002456658833862421</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0674565099961022</v>
+        <v>0.1515666991526281</v>
       </c>
       <c r="K22">
-        <v>6.481971596324911</v>
+        <v>2.236127575435262</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.415210988098423</v>
+        <v>0.6101209964134569</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.106260389011112</v>
+        <v>3.666605882761843</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2463146472303208</v>
+        <v>0.07758904913127651</v>
       </c>
       <c r="D23">
-        <v>0.1610571677622232</v>
+        <v>0.1666467205227349</v>
       </c>
       <c r="E23">
-        <v>0.08719467725870089</v>
+        <v>0.1374699146314136</v>
       </c>
       <c r="F23">
-        <v>0.9098177604881528</v>
+        <v>1.494776899450656</v>
       </c>
       <c r="G23">
-        <v>0.0007798184907278438</v>
+        <v>0.002457898598331813</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06673463395701162</v>
+        <v>0.1519719297280311</v>
       </c>
       <c r="K23">
-        <v>6.240718503753499</v>
+        <v>2.163929634238286</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.3624067479102</v>
+        <v>0.5951429486643889</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.064109225599822</v>
+        <v>3.67524054703793</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2087736275364591</v>
+        <v>0.06739757260902479</v>
       </c>
       <c r="D24">
-        <v>0.1414790306956348</v>
+        <v>0.1619246109583798</v>
       </c>
       <c r="E24">
-        <v>0.07969208447912735</v>
+        <v>0.1368980206600661</v>
       </c>
       <c r="F24">
-        <v>0.8387079610402282</v>
+        <v>1.502998854834146</v>
       </c>
       <c r="G24">
-        <v>0.0007882239211248684</v>
+        <v>0.00246277556748401</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06444643161158936</v>
+        <v>0.1536650283367642</v>
       </c>
       <c r="K24">
-        <v>5.333134092091086</v>
+        <v>1.890230131081466</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.1641249726746</v>
+        <v>0.5385287828686103</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.92284263813994</v>
+        <v>3.713095485518551</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1692441493967038</v>
+        <v>0.05646774150352485</v>
       </c>
       <c r="D25">
-        <v>0.1207825981162642</v>
+        <v>0.1569812322759816</v>
       </c>
       <c r="E25">
-        <v>0.0721398006693228</v>
+        <v>0.1365084747489895</v>
       </c>
       <c r="F25">
-        <v>0.7739928605857784</v>
+        <v>1.515873716176316</v>
       </c>
       <c r="G25">
-        <v>0.0007975723809539493</v>
+        <v>0.002468426721602746</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06282445028874761</v>
+        <v>0.155828800593131</v>
       </c>
       <c r="K25">
-        <v>4.364043055898378</v>
+        <v>1.594517412056291</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9531131358114706</v>
+        <v>0.4777170608361061</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.804729024826884</v>
+        <v>3.764876880213023</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04847177082993426</v>
+        <v>0.140756048622265</v>
       </c>
       <c r="D2">
-        <v>0.1534718802712476</v>
+        <v>0.1058326230305511</v>
       </c>
       <c r="E2">
-        <v>0.1364174140543746</v>
+        <v>0.06697728735885278</v>
       </c>
       <c r="F2">
-        <v>1.52878314466372</v>
+        <v>0.7350853870767509</v>
       </c>
       <c r="G2">
-        <v>0.002472927089828936</v>
+        <v>0.0008047286779498658</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1577116572115003</v>
+        <v>0.06226174648327643</v>
       </c>
       <c r="K2">
-        <v>1.376394238103046</v>
+        <v>3.655985975743306</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4331660064745222</v>
+        <v>0.7994794523502122</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.812364515691229</v>
+        <v>1.742717849102405</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04308372056300414</v>
+        <v>0.1217393200149672</v>
       </c>
       <c r="D3">
-        <v>0.1511756676351581</v>
+        <v>0.09584806215396924</v>
       </c>
       <c r="E3">
-        <v>0.1364779707666841</v>
+        <v>0.06369706932580144</v>
       </c>
       <c r="F3">
-        <v>1.53966367904944</v>
+        <v>0.713468321051927</v>
       </c>
       <c r="G3">
-        <v>0.002476190568244493</v>
+        <v>0.0008097627613144348</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1591681047621876</v>
+        <v>0.06223119318670456</v>
       </c>
       <c r="K3">
-        <v>1.22834319122228</v>
+        <v>3.178214644289085</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4031164499780644</v>
+        <v>0.6961174723480781</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.850359260727288</v>
+        <v>1.714240380830404</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03979032310876107</v>
+        <v>0.1101773599389588</v>
       </c>
       <c r="D4">
-        <v>0.1498065855606114</v>
+        <v>0.08978031316534185</v>
       </c>
       <c r="E4">
-        <v>0.1365755322531648</v>
+        <v>0.0617817222207222</v>
       </c>
       <c r="F4">
-        <v>1.547393368687544</v>
+        <v>0.7023264659063457</v>
       </c>
       <c r="G4">
-        <v>0.002478300271214605</v>
+        <v>0.0008129487633576904</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1601512700977636</v>
+        <v>0.06237239132064332</v>
       </c>
       <c r="K4">
-        <v>1.137335566993244</v>
+        <v>2.885497211884598</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.384738083723235</v>
+        <v>0.6329302098791558</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.876545931048128</v>
+        <v>1.702827685176203</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03845195580052518</v>
+        <v>0.1054906147145829</v>
       </c>
       <c r="D5">
-        <v>0.1492589943769715</v>
+        <v>0.08732213962596802</v>
       </c>
       <c r="E5">
-        <v>0.1366304877349389</v>
+        <v>0.06102477982205379</v>
       </c>
       <c r="F5">
-        <v>1.550806723961344</v>
+        <v>0.6982924222384881</v>
       </c>
       <c r="G5">
-        <v>0.002479186706594536</v>
+        <v>0.0008142715644319232</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.160574259501221</v>
+        <v>0.06246832911480737</v>
       </c>
       <c r="K5">
-        <v>1.100225151047198</v>
+        <v>2.766320363777652</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3772673028289972</v>
+        <v>0.6072378193555394</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.887934516381975</v>
+        <v>1.699618938628674</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0382299448292116</v>
+        <v>0.1047137747305698</v>
       </c>
       <c r="D6">
-        <v>0.1491686924377262</v>
+        <v>0.08691479983994554</v>
       </c>
       <c r="E6">
-        <v>0.1366405314544963</v>
+        <v>0.0609004789764267</v>
       </c>
       <c r="F6">
-        <v>1.55138941056552</v>
+        <v>0.6976523227140632</v>
       </c>
       <c r="G6">
-        <v>0.002479335514321068</v>
+        <v>0.0008144927093245941</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1606458455574682</v>
+        <v>0.0624865272476427</v>
       </c>
       <c r="K6">
-        <v>1.094061600475442</v>
+        <v>2.746536203098856</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3760279178164083</v>
+        <v>0.6029746976177108</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.889868867689344</v>
+        <v>1.69917082939395</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03977225839321363</v>
+        <v>0.1101140572607875</v>
       </c>
       <c r="D7">
-        <v>0.1497991586832228</v>
+        <v>0.08974710440578804</v>
       </c>
       <c r="E7">
-        <v>0.1365762118435345</v>
+        <v>0.06177141996509761</v>
       </c>
       <c r="F7">
-        <v>1.547438336164717</v>
+        <v>0.7022700489992246</v>
       </c>
       <c r="G7">
-        <v>0.002478312117620996</v>
+        <v>0.0008129665032823315</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1601568842378818</v>
+        <v>0.06237353203473717</v>
       </c>
       <c r="K7">
-        <v>1.136835177729751</v>
+        <v>2.88388958057098</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3846372545042129</v>
+        <v>0.6325834991239105</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.87669661889089</v>
+        <v>1.702778681015417</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04661086479130461</v>
+        <v>0.1341729060183781</v>
       </c>
       <c r="D8">
-        <v>0.1526717132156463</v>
+        <v>0.1023760910005294</v>
       </c>
       <c r="E8">
-        <v>0.1364257712195496</v>
+        <v>0.06582500534317148</v>
       </c>
       <c r="F8">
-        <v>1.532316830454064</v>
+        <v>0.7271712027789263</v>
       </c>
       <c r="G8">
-        <v>0.002474030403928094</v>
+        <v>0.0008064450588069658</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1581953810133889</v>
+        <v>0.06221688225667066</v>
       </c>
       <c r="K8">
-        <v>1.325368903839205</v>
+        <v>3.491085760784699</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.422790167545152</v>
+        <v>0.7637746432720931</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.824871197272984</v>
+        <v>1.731585767714876</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06014127571451411</v>
+        <v>0.182450407550391</v>
       </c>
       <c r="D9">
-        <v>0.1586262487876979</v>
+        <v>0.1277047122792538</v>
       </c>
       <c r="E9">
-        <v>0.1366093033082194</v>
+        <v>0.07461772503738828</v>
       </c>
       <c r="F9">
-        <v>1.511002984422475</v>
+        <v>0.7943351222170065</v>
       </c>
       <c r="G9">
-        <v>0.002466470628376524</v>
+        <v>0.000794382864636332</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1550548931259712</v>
+        <v>0.06326662319358434</v>
       </c>
       <c r="K9">
-        <v>1.694191518976652</v>
+        <v>4.68944198097779</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4981671073830825</v>
+        <v>1.023877503619659</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.745976384196638</v>
+        <v>1.840354022323822</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07015866684930927</v>
+        <v>0.218876556427503</v>
       </c>
       <c r="D10">
-        <v>0.1631945441702811</v>
+        <v>0.1467560808643071</v>
       </c>
       <c r="E10">
-        <v>0.137035366973798</v>
+        <v>0.08168258021958152</v>
       </c>
       <c r="F10">
-        <v>1.500451212727739</v>
+        <v>0.8569861874269691</v>
       </c>
       <c r="G10">
-        <v>0.002461421270909427</v>
+        <v>0.0007859218435756359</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1531788942533083</v>
+        <v>0.06499605347270432</v>
       </c>
       <c r="K10">
-        <v>1.964557874944603</v>
+        <v>5.578543149547784</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5538752827900737</v>
+        <v>1.217680692876186</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.701956544225879</v>
+        <v>1.958260939594794</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07473327775781513</v>
+        <v>0.2357251423844247</v>
       </c>
       <c r="D11">
-        <v>0.1653143166412434</v>
+        <v>0.1555433156024293</v>
       </c>
       <c r="E11">
-        <v>0.1372923388457181</v>
+        <v>0.08504981038561965</v>
       </c>
       <c r="F11">
-        <v>1.496765169692225</v>
+        <v>0.8888941665868941</v>
       </c>
       <c r="G11">
-        <v>0.002459232686670313</v>
+        <v>0.0007821497638857478</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.152419313293791</v>
+        <v>0.06602262663094649</v>
       </c>
       <c r="K11">
-        <v>2.087411152086247</v>
+        <v>5.985888002589547</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5792876321584117</v>
+        <v>1.306673849964696</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.684976967902969</v>
+        <v>2.021639433183196</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07646814425078219</v>
+        <v>0.242151547622413</v>
       </c>
       <c r="D12">
-        <v>0.1661229546339058</v>
+        <v>0.1588903389813368</v>
       </c>
       <c r="E12">
-        <v>0.1373987175955556</v>
+        <v>0.08634893295376145</v>
       </c>
       <c r="F12">
-        <v>1.495529957893027</v>
+        <v>0.9015141947611482</v>
       </c>
       <c r="G12">
-        <v>0.002458419429377214</v>
+        <v>0.0007807315332081441</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1521451881140621</v>
+        <v>0.06644875542774642</v>
       </c>
       <c r="K12">
-        <v>2.13391115510268</v>
+        <v>6.140643278146456</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5889204528242402</v>
+        <v>1.340514367517258</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.67898663294099</v>
+        <v>2.047176616785663</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07609439546843078</v>
+        <v>0.2407653463596517</v>
       </c>
       <c r="D13">
-        <v>0.1659485373624108</v>
+        <v>0.158168594846515</v>
       </c>
       <c r="E13">
-        <v>0.1373754038734027</v>
+        <v>0.08606804201077978</v>
       </c>
       <c r="F13">
-        <v>1.495788832886092</v>
+        <v>0.8987715601389397</v>
       </c>
       <c r="G13">
-        <v>0.002458593890249892</v>
+        <v>0.0007810365368439511</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1522036246169236</v>
+        <v>0.06635526930491409</v>
       </c>
       <c r="K13">
-        <v>2.123897552494725</v>
+        <v>6.107290129656178</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5868454269281642</v>
+        <v>1.333219588347603</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.680257188786584</v>
+        <v>2.041606064781831</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07487595482037079</v>
+        <v>0.2362528829796702</v>
       </c>
       <c r="D14">
-        <v>0.1653807253502464</v>
+        <v>0.1558182737550879</v>
       </c>
       <c r="E14">
-        <v>0.1373009090016772</v>
+        <v>0.08515619661142892</v>
       </c>
       <c r="F14">
-        <v>1.496660326755631</v>
+        <v>0.8899213734736406</v>
       </c>
       <c r="G14">
-        <v>0.00245916546916635</v>
+        <v>0.0007820328866061622</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1523964899395196</v>
+        <v>0.06605691770520039</v>
       </c>
       <c r="K14">
-        <v>2.09123718526331</v>
+        <v>5.998609210148004</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5800799377341406</v>
+        <v>1.309454980581478</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.684475323055636</v>
+        <v>2.023708763122784</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0741299588823523</v>
+        <v>0.233495080404154</v>
       </c>
       <c r="D15">
-        <v>0.1650336940750918</v>
+        <v>0.1543812387433832</v>
       </c>
       <c r="E15">
-        <v>0.1372564594405148</v>
+        <v>0.0846008550316526</v>
       </c>
       <c r="F15">
-        <v>1.49721507086943</v>
+        <v>0.8845718032812755</v>
       </c>
       <c r="G15">
-        <v>0.002459517595673436</v>
+        <v>0.0007826444771780285</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1525163857401708</v>
+        <v>0.0658791279949611</v>
       </c>
       <c r="K15">
-        <v>2.071228858922325</v>
+        <v>5.932107193153115</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5759371333909229</v>
+        <v>1.294917463574578</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.687116329197011</v>
+        <v>2.012950576068647</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06986006235752029</v>
+        <v>0.2177815780919303</v>
       </c>
       <c r="D16">
-        <v>0.163056844613422</v>
+        <v>0.1461844210226104</v>
       </c>
       <c r="E16">
-        <v>0.1370198430109539</v>
+        <v>0.0814657749888319</v>
       </c>
       <c r="F16">
-        <v>1.500714556902651</v>
+        <v>0.8549734356361114</v>
       </c>
       <c r="G16">
-        <v>0.002461566474749905</v>
+        <v>0.0007861698311614472</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.153230424302194</v>
+        <v>0.06493403299992195</v>
       </c>
       <c r="K16">
-        <v>1.956526175969657</v>
+        <v>5.551987605551631</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5522159077898152</v>
+        <v>1.211883276203253</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.703127611107845</v>
+        <v>1.954326417203504</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06724515572939538</v>
+        <v>0.2082173527783056</v>
       </c>
       <c r="D17">
-        <v>0.1618547312415473</v>
+        <v>0.1411883080711362</v>
       </c>
       <c r="E17">
-        <v>0.1368908528014785</v>
+        <v>0.07958314205825801</v>
       </c>
       <c r="F17">
-        <v>1.503147001556599</v>
+        <v>0.8377208745300919</v>
       </c>
       <c r="G17">
-        <v>0.002462851104640824</v>
+        <v>0.0007883516077141796</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1536925079603755</v>
+        <v>0.06441766415687766</v>
       </c>
       <c r="K17">
-        <v>1.886123042632164</v>
+        <v>5.319595933637913</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5376814465795974</v>
+        <v>1.161171870862631</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.713731087932558</v>
+        <v>1.920950818066245</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06574279049955578</v>
+        <v>0.2027420421418924</v>
       </c>
       <c r="D18">
-        <v>0.1611672296053968</v>
+        <v>0.138325895774642</v>
       </c>
       <c r="E18">
-        <v>0.1368226060675966</v>
+        <v>0.07851461229707013</v>
       </c>
       <c r="F18">
-        <v>1.504650910293307</v>
+        <v>0.82811535336009</v>
       </c>
       <c r="G18">
-        <v>0.002463600196846511</v>
+        <v>0.0007896138011401594</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1539671158493441</v>
+        <v>0.06414305050719804</v>
       </c>
       <c r="K18">
-        <v>1.845616179567799</v>
+        <v>5.186196564478564</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.529328261491969</v>
+        <v>1.132080860138117</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.72011646952123</v>
+        <v>1.902662195971516</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06523439984303536</v>
+        <v>0.2008924426555296</v>
       </c>
       <c r="D19">
-        <v>0.1609351288534526</v>
+        <v>0.1373585970485891</v>
       </c>
       <c r="E19">
-        <v>0.1368005203361733</v>
+        <v>0.0781552270479331</v>
       </c>
       <c r="F19">
-        <v>1.505178099987447</v>
+        <v>0.8249162822685179</v>
       </c>
       <c r="G19">
-        <v>0.002463855581799068</v>
+        <v>0.0007900424364461056</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1540616092330929</v>
+        <v>0.06405383186244151</v>
       </c>
       <c r="K19">
-        <v>1.831899109230847</v>
+        <v>5.141073014789356</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5265011717461903</v>
+        <v>1.122243726485934</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.722327616504884</v>
+        <v>1.896621996591563</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06752334504720636</v>
+        <v>0.2092327695287679</v>
       </c>
       <c r="D20">
-        <v>0.1619822927727768</v>
+        <v>0.1417189767381473</v>
       </c>
       <c r="E20">
-        <v>0.1369039688315112</v>
+        <v>0.07978205668384675</v>
       </c>
       <c r="F20">
-        <v>1.502877211022238</v>
+        <v>0.8395242301833008</v>
       </c>
       <c r="G20">
-        <v>0.002462713297971934</v>
+        <v>0.0007881186051992825</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1536424043893021</v>
+        <v>0.06447029520981928</v>
       </c>
       <c r="K20">
-        <v>1.893618920575193</v>
+        <v>5.344306268842956</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5392279792658883</v>
+        <v>1.166562085302871</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.712572662394621</v>
+        <v>1.924408769370757</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07523377069884418</v>
+        <v>0.237576996531331</v>
       </c>
       <c r="D21">
-        <v>0.1655473451468339</v>
+        <v>0.156508073173768</v>
       </c>
       <c r="E21">
-        <v>0.1373225439164933</v>
+        <v>0.08542335915624477</v>
       </c>
       <c r="F21">
-        <v>1.496399985557403</v>
+        <v>0.8925059129701509</v>
       </c>
       <c r="G21">
-        <v>0.002458997162076963</v>
+        <v>0.0007817399658083617</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1523394738540524</v>
+        <v>0.06614351176904165</v>
       </c>
       <c r="K21">
-        <v>2.100830936555553</v>
+        <v>6.030517053803237</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5820668654813801</v>
+        <v>1.316431223505148</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.683224415498017</v>
+        <v>2.028922771760904</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08028791533433832</v>
+        <v>0.2563742185677853</v>
       </c>
       <c r="D22">
-        <v>0.1679118275230422</v>
+        <v>0.1662883242315161</v>
       </c>
       <c r="E22">
-        <v>0.1376489628405935</v>
+        <v>0.08925135113489091</v>
       </c>
       <c r="F22">
-        <v>1.493103112490871</v>
+        <v>0.9302884696940339</v>
       </c>
       <c r="G22">
-        <v>0.002456658833862421</v>
+        <v>0.0007776299954912246</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1515666991526281</v>
+        <v>0.06745650999606312</v>
       </c>
       <c r="K22">
-        <v>2.236127575435262</v>
+        <v>6.481971596324968</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6101209964134569</v>
+        <v>1.415210988098437</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.666605882761843</v>
+        <v>2.106260389011112</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07758904913127651</v>
+        <v>0.2463146472303208</v>
       </c>
       <c r="D23">
-        <v>0.1666467205227349</v>
+        <v>0.1610571677619816</v>
       </c>
       <c r="E23">
-        <v>0.1374699146314136</v>
+        <v>0.08719467725869734</v>
       </c>
       <c r="F23">
-        <v>1.494776899450656</v>
+        <v>0.9098177604881528</v>
       </c>
       <c r="G23">
-        <v>0.002457898598331813</v>
+        <v>0.0007798184907009826</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1519719297280311</v>
+        <v>0.06673463395704005</v>
       </c>
       <c r="K23">
-        <v>2.163929634238286</v>
+        <v>6.240718503753499</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5951429486643889</v>
+        <v>1.362406747910242</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.67524054703793</v>
+        <v>2.064109225599879</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06739757260902479</v>
+        <v>0.2087736275364733</v>
       </c>
       <c r="D24">
-        <v>0.1619246109583798</v>
+        <v>0.1414790306955069</v>
       </c>
       <c r="E24">
-        <v>0.1368980206600661</v>
+        <v>0.0796920844791309</v>
       </c>
       <c r="F24">
-        <v>1.502998854834146</v>
+        <v>0.8387079610402424</v>
       </c>
       <c r="G24">
-        <v>0.00246277556748401</v>
+        <v>0.0007882239210978618</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1536650283367642</v>
+        <v>0.06444643161151475</v>
       </c>
       <c r="K24">
-        <v>1.890230131081466</v>
+        <v>5.333134092090916</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5385287828686103</v>
+        <v>1.1641249726746</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.713095485518551</v>
+        <v>1.922842638139912</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05646774150352485</v>
+        <v>0.1692441493967323</v>
       </c>
       <c r="D25">
-        <v>0.1569812322759816</v>
+        <v>0.1207825981162785</v>
       </c>
       <c r="E25">
-        <v>0.1365084747489895</v>
+        <v>0.07213980066930858</v>
       </c>
       <c r="F25">
-        <v>1.515873716176316</v>
+        <v>0.7739928605857784</v>
       </c>
       <c r="G25">
-        <v>0.002468426721602746</v>
+        <v>0.0007975723809552667</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.155828800593131</v>
+        <v>0.06282445028885064</v>
       </c>
       <c r="K25">
-        <v>1.594517412056291</v>
+        <v>4.364043055898321</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4777170608361061</v>
+        <v>0.9531131358114422</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.764876880213023</v>
+        <v>1.804729024826855</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.140756048622265</v>
+        <v>0.239150253162947</v>
       </c>
       <c r="D2">
-        <v>0.1058326230305511</v>
+        <v>0.01134449639614488</v>
       </c>
       <c r="E2">
-        <v>0.06697728735885278</v>
+        <v>0.4808424497007167</v>
       </c>
       <c r="F2">
-        <v>0.7350853870767509</v>
+        <v>0.8676629413762953</v>
       </c>
       <c r="G2">
-        <v>0.0008047286779498658</v>
+        <v>0.8071090996812273</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0549055699061326</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.04845963487432003</v>
       </c>
       <c r="J2">
-        <v>0.06226174648327643</v>
+        <v>0.4557339921936432</v>
       </c>
       <c r="K2">
-        <v>3.655985975743306</v>
+        <v>0.4442175306834386</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7994794523502122</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.109137895897021</v>
       </c>
       <c r="O2">
-        <v>1.742717849102405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>32.44953760111582</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1217393200149672</v>
+        <v>0.2179120085831698</v>
       </c>
       <c r="D3">
-        <v>0.09584806215396924</v>
+        <v>0.01205430349796544</v>
       </c>
       <c r="E3">
-        <v>0.06369706932580144</v>
+        <v>0.4246942478056468</v>
       </c>
       <c r="F3">
-        <v>0.713468321051927</v>
+        <v>0.7603799596871568</v>
       </c>
       <c r="G3">
-        <v>0.0008097627613144348</v>
+        <v>0.6985806014949247</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.03392126388615174</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.03128963893709802</v>
       </c>
       <c r="J3">
-        <v>0.06223119318670456</v>
+        <v>0.418214529147221</v>
       </c>
       <c r="K3">
-        <v>3.178214644289085</v>
+        <v>0.4039765510830975</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6961174723480781</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.9680767322914505</v>
       </c>
       <c r="O3">
-        <v>1.714240380830404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>27.87507856341898</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1101773599389588</v>
+        <v>0.2046134598827507</v>
       </c>
       <c r="D4">
-        <v>0.08978031316534185</v>
+        <v>0.01253009609739308</v>
       </c>
       <c r="E4">
-        <v>0.0617817222207222</v>
+        <v>0.3900342012442763</v>
       </c>
       <c r="F4">
-        <v>0.7023264659063457</v>
+        <v>0.6998492829248448</v>
       </c>
       <c r="G4">
-        <v>0.0008129487633576904</v>
+        <v>0.6379377057950819</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.02364450230641177</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02263774135234398</v>
       </c>
       <c r="J4">
-        <v>0.06237239132064332</v>
+        <v>0.398150251330776</v>
       </c>
       <c r="K4">
-        <v>2.885497211884598</v>
+        <v>0.3831285448959818</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6329302098791558</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.8819676893887163</v>
       </c>
       <c r="O4">
-        <v>1.702827685176203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>25.14382264641995</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1054906147145829</v>
+        <v>0.1996140964914019</v>
       </c>
       <c r="D5">
-        <v>0.08732213962596802</v>
+        <v>0.01278170266569845</v>
       </c>
       <c r="E5">
-        <v>0.06102477982205379</v>
+        <v>0.3760602174180221</v>
       </c>
       <c r="F5">
-        <v>0.6982924222384881</v>
+        <v>0.6750188824059791</v>
       </c>
       <c r="G5">
-        <v>0.0008142715644319232</v>
+        <v>0.613034439262151</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01999100831743025</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01954663420212777</v>
       </c>
       <c r="J5">
-        <v>0.06246832911480737</v>
+        <v>0.3898717257049782</v>
       </c>
       <c r="K5">
-        <v>2.766320363777652</v>
+        <v>0.3743762341806942</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6072378193555394</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.8467732249653466</v>
       </c>
       <c r="O5">
-        <v>1.699618938628674</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>24.04573744799387</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1047137747305698</v>
+        <v>0.1993612342641882</v>
       </c>
       <c r="D6">
-        <v>0.08691479983994554</v>
+        <v>0.01288443951407103</v>
       </c>
       <c r="E6">
-        <v>0.0609004789764267</v>
+        <v>0.3739812981634216</v>
       </c>
       <c r="F6">
-        <v>0.6976523227140632</v>
+        <v>0.6693642201861536</v>
       </c>
       <c r="G6">
-        <v>0.0008144927093245941</v>
+        <v>0.6071801270826995</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01940211164211716</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01910103185562484</v>
       </c>
       <c r="J6">
-        <v>0.0624865272476427</v>
+        <v>0.3876234754199004</v>
       </c>
       <c r="K6">
-        <v>2.746536203098856</v>
+        <v>0.3716470408515207</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6029746976177108</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.8407210456124403</v>
       </c>
       <c r="O6">
-        <v>1.69917082939395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>23.864082565432</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1101140572607875</v>
+        <v>0.2061323090583187</v>
       </c>
       <c r="D7">
-        <v>0.08974710440578804</v>
+        <v>0.01269797946750018</v>
       </c>
       <c r="E7">
-        <v>0.06177141996509761</v>
+        <v>0.3905162312619979</v>
       </c>
       <c r="F7">
-        <v>0.7022700489992246</v>
+        <v>0.6951263161771095</v>
       </c>
       <c r="G7">
-        <v>0.0008129665032823315</v>
+        <v>0.6326745669504987</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.02355607189549361</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02269524063554407</v>
       </c>
       <c r="J7">
-        <v>0.06237353203473717</v>
+        <v>0.3955375354932755</v>
       </c>
       <c r="K7">
-        <v>2.88388958057098</v>
+        <v>0.3793701815369275</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6325834991239105</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.8809183660465578</v>
       </c>
       <c r="O7">
-        <v>1.702778681015417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>25.12862712958918</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1341729060183781</v>
+        <v>0.2340004959182806</v>
       </c>
       <c r="D8">
-        <v>0.1023760910005294</v>
+        <v>0.01179558928158997</v>
       </c>
       <c r="E8">
-        <v>0.06582500534317148</v>
+        <v>0.4624172053710893</v>
       </c>
       <c r="F8">
-        <v>0.7271712027789263</v>
+        <v>0.8235072759088666</v>
       </c>
       <c r="G8">
-        <v>0.0008064450588069658</v>
+        <v>0.7616256747716079</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.04698801398745345</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.04216979410472366</v>
       </c>
       <c r="J8">
-        <v>0.06221688225667066</v>
+        <v>0.4387395881637843</v>
       </c>
       <c r="K8">
-        <v>3.491085760784699</v>
+        <v>0.424515228048655</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7637746432720931</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.059602509148192</v>
       </c>
       <c r="O8">
-        <v>1.731585767714876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>30.85260779165026</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.182450407550391</v>
+        <v>0.2830080867363733</v>
       </c>
       <c r="D9">
-        <v>0.1277047122792538</v>
+        <v>0.01014771635768241</v>
       </c>
       <c r="E9">
-        <v>0.07461772503738828</v>
+        <v>0.6010038561620732</v>
       </c>
       <c r="F9">
-        <v>0.7943351222170065</v>
+        <v>1.137057984560343</v>
       </c>
       <c r="G9">
-        <v>0.000794382864636332</v>
+        <v>1.084315530991091</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1201896434939358</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.09937778195085745</v>
       </c>
       <c r="J9">
-        <v>0.06326662319358434</v>
+        <v>0.557570785104474</v>
       </c>
       <c r="K9">
-        <v>4.68944198097779</v>
+        <v>0.5586063104819559</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.023877503619659</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.418714260895513</v>
       </c>
       <c r="O9">
-        <v>1.840354022323822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>42.95916163968707</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.218876556427503</v>
+        <v>0.3218136864493744</v>
       </c>
       <c r="D10">
-        <v>0.1467560808643071</v>
+        <v>0.0102331213471345</v>
       </c>
       <c r="E10">
-        <v>0.08168258021958152</v>
+        <v>0.7198468867428858</v>
       </c>
       <c r="F10">
-        <v>0.8569861874269691</v>
+        <v>1.396122931022134</v>
       </c>
       <c r="G10">
-        <v>0.0007859218435756359</v>
+        <v>1.354691732230151</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.202415506442351</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.160539807213067</v>
       </c>
       <c r="J10">
-        <v>0.06499605347270432</v>
+        <v>0.6595052209769392</v>
       </c>
       <c r="K10">
-        <v>5.578543149547784</v>
+        <v>0.6761225139922189</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.217680692876186</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.732991625937018</v>
       </c>
       <c r="O10">
-        <v>1.958260939594794</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>52.91851790221506</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2357251423844247</v>
+        <v>0.3900228715133949</v>
       </c>
       <c r="D11">
-        <v>0.1555433156024293</v>
+        <v>0.01879687639553751</v>
       </c>
       <c r="E11">
-        <v>0.08504981038561965</v>
+        <v>0.9329023551918567</v>
       </c>
       <c r="F11">
-        <v>0.8888941665868941</v>
+        <v>1.329334353148184</v>
       </c>
       <c r="G11">
-        <v>0.0007821497638857478</v>
+        <v>1.272056756234576</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.263284080422185</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1938713065876643</v>
       </c>
       <c r="J11">
-        <v>0.06602262663094649</v>
+        <v>0.5998536581940641</v>
       </c>
       <c r="K11">
-        <v>5.985888002589547</v>
+        <v>0.58481362506474</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.306673849964696</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2.242554944529473</v>
       </c>
       <c r="O11">
-        <v>2.021639433183196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>57.8490767601437</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.242151547622413</v>
+        <v>0.4423983124907238</v>
       </c>
       <c r="D12">
-        <v>0.1588903389813368</v>
+        <v>0.02774400338298477</v>
       </c>
       <c r="E12">
-        <v>0.08634893295376145</v>
+        <v>1.104102518221225</v>
       </c>
       <c r="F12">
-        <v>0.9015141947611482</v>
+        <v>1.225975569138683</v>
       </c>
       <c r="G12">
-        <v>0.0007807315332081441</v>
+        <v>1.156614792928778</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3203249410514815</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2082227970990926</v>
       </c>
       <c r="J12">
-        <v>0.06644875542774642</v>
+        <v>0.5334088782533399</v>
       </c>
       <c r="K12">
-        <v>6.140643278146456</v>
+        <v>0.4949527225384927</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.340514367517258</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2.647275053084229</v>
       </c>
       <c r="O12">
-        <v>2.047176616785663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>59.80544366400898</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2407653463596517</v>
+        <v>0.4883686538203449</v>
       </c>
       <c r="D13">
-        <v>0.158168594846515</v>
+        <v>0.03767523365966241</v>
       </c>
       <c r="E13">
-        <v>0.08606804201077978</v>
+        <v>1.251740837733536</v>
       </c>
       <c r="F13">
-        <v>0.8987715601389397</v>
+        <v>1.075977904849111</v>
       </c>
       <c r="G13">
-        <v>0.0007810365368439511</v>
+        <v>0.9950854694291422</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3724254825670528</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2058224659979748</v>
       </c>
       <c r="J13">
-        <v>0.06635526930491409</v>
+        <v>0.4511290280237716</v>
       </c>
       <c r="K13">
-        <v>6.107290129656178</v>
+        <v>0.3916386880763127</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.333219588347603</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2.985668440199476</v>
       </c>
       <c r="O13">
-        <v>2.041606064781831</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>59.38041118355773</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2362528829796702</v>
+        <v>0.5186272357637449</v>
       </c>
       <c r="D14">
-        <v>0.1558182737550879</v>
+        <v>0.04538667748204972</v>
       </c>
       <c r="E14">
-        <v>0.08515619661142892</v>
+        <v>1.345408397306073</v>
       </c>
       <c r="F14">
-        <v>0.8899213734736406</v>
+        <v>0.9513697737871212</v>
       </c>
       <c r="G14">
-        <v>0.0007820328866061622</v>
+        <v>0.8633367310028035</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.4094997358250225</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1966632876334344</v>
       </c>
       <c r="J14">
-        <v>0.06605691770520039</v>
+        <v>0.3873494959491524</v>
       </c>
       <c r="K14">
-        <v>5.998609210148004</v>
+        <v>0.3152797647903611</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.309454980581478</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>3.19379407269443</v>
       </c>
       <c r="O14">
-        <v>2.023708763122784</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>58.00980516751258</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.233495080404154</v>
+        <v>0.5247048283784181</v>
       </c>
       <c r="D15">
-        <v>0.1543812387433832</v>
+        <v>0.04733244970000072</v>
       </c>
       <c r="E15">
-        <v>0.0846008550316526</v>
+        <v>1.360757142565078</v>
       </c>
       <c r="F15">
-        <v>0.8845718032812755</v>
+        <v>0.9098513886813464</v>
       </c>
       <c r="G15">
-        <v>0.0007826444771780285</v>
+        <v>0.8198016997737767</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.4141077087075189</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1908866382529606</v>
       </c>
       <c r="J15">
-        <v>0.0658791279949611</v>
+        <v>0.3676513796328322</v>
       </c>
       <c r="K15">
-        <v>5.932107193153115</v>
+        <v>0.2923113173531888</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.294917463574578</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>3.223425887112825</v>
       </c>
       <c r="O15">
-        <v>2.012950576068647</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>57.17964214716523</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2177815780919303</v>
+        <v>0.499820145589581</v>
       </c>
       <c r="D16">
-        <v>0.1461844210226104</v>
+        <v>0.04516813331429148</v>
       </c>
       <c r="E16">
-        <v>0.0814657749888319</v>
+        <v>1.273042173525766</v>
       </c>
       <c r="F16">
-        <v>0.8549734356361114</v>
+        <v>0.8170707131199038</v>
       </c>
       <c r="G16">
-        <v>0.0007861698311614472</v>
+        <v>0.7230571227588172</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3563132236201199</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1584909891362738</v>
       </c>
       <c r="J16">
-        <v>0.06493403299992195</v>
+        <v>0.334453032605694</v>
       </c>
       <c r="K16">
-        <v>5.551987605551631</v>
+        <v>0.2553236384430591</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.211883276203253</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2.9964663403168</v>
       </c>
       <c r="O16">
-        <v>1.954326417203504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>52.57499106592138</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2082173527783056</v>
+        <v>0.4642027318862745</v>
       </c>
       <c r="D17">
-        <v>0.1411883080711362</v>
+        <v>0.03928757589797272</v>
       </c>
       <c r="E17">
-        <v>0.07958314205825801</v>
+        <v>1.15637868381863</v>
       </c>
       <c r="F17">
-        <v>0.8377208745300919</v>
+        <v>0.8137932484667232</v>
       </c>
       <c r="G17">
-        <v>0.0007883516077141796</v>
+        <v>0.72047881062295</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2931906841556753</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1401848221614017</v>
       </c>
       <c r="J17">
-        <v>0.06441766415687766</v>
+        <v>0.3435731343578965</v>
       </c>
       <c r="K17">
-        <v>5.319595933637913</v>
+        <v>0.2678311952813814</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.161171870862631</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2.71429081082232</v>
       </c>
       <c r="O17">
-        <v>1.920950818066245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>49.87355802775255</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2027420421418924</v>
+        <v>0.4162281925166269</v>
       </c>
       <c r="D18">
-        <v>0.138325895774642</v>
+        <v>0.03017828491331898</v>
       </c>
       <c r="E18">
-        <v>0.07851461229707013</v>
+        <v>1.007971159228305</v>
       </c>
       <c r="F18">
-        <v>0.82811535336009</v>
+        <v>0.888259510311741</v>
       </c>
       <c r="G18">
-        <v>0.0007896138011401594</v>
+        <v>0.8009050764270285</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2268641182883755</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1300255464935933</v>
       </c>
       <c r="J18">
-        <v>0.06414305050719804</v>
+        <v>0.3913796197390269</v>
       </c>
       <c r="K18">
-        <v>5.186196564478564</v>
+        <v>0.3279805449552953</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.132080860138117</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.368260645541056</v>
       </c>
       <c r="O18">
-        <v>1.902662195971516</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>48.35983766316934</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2008924426555296</v>
+        <v>0.3690363656555178</v>
       </c>
       <c r="D19">
-        <v>0.1373585970485891</v>
+        <v>0.02102731854052564</v>
       </c>
       <c r="E19">
-        <v>0.0781552270479331</v>
+        <v>0.8561967334933911</v>
       </c>
       <c r="F19">
-        <v>0.8249162822685179</v>
+        <v>1.016722651305926</v>
       </c>
       <c r="G19">
-        <v>0.0007900424364461056</v>
+        <v>0.9410567497825753</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1785742641603889</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1268965471384531</v>
       </c>
       <c r="J19">
-        <v>0.06405383186244151</v>
+        <v>0.4659305925346473</v>
       </c>
       <c r="K19">
-        <v>5.141073014789356</v>
+        <v>0.4240750747183384</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.122243726485934</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.016501398904609</v>
       </c>
       <c r="O19">
-        <v>1.896621996591563</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>47.85979616172318</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2092327695287679</v>
+        <v>0.3172757770838501</v>
       </c>
       <c r="D20">
-        <v>0.1417189767381473</v>
+        <v>0.01069977422583079</v>
       </c>
       <c r="E20">
-        <v>0.07978205668384675</v>
+        <v>0.691415019240921</v>
       </c>
       <c r="F20">
-        <v>0.8395242301833008</v>
+        <v>1.307323837294192</v>
       </c>
       <c r="G20">
-        <v>0.0007881186051992825</v>
+        <v>1.260116394697434</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1775930368903071</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1426050134632773</v>
       </c>
       <c r="J20">
-        <v>0.06447029520981928</v>
+        <v>0.6211077938955043</v>
       </c>
       <c r="K20">
-        <v>5.344306268842956</v>
+        <v>0.6284676228371211</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.166562085302871</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.648726173327987</v>
       </c>
       <c r="O20">
-        <v>1.924408769370757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>50.18794106557971</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.237576996531331</v>
+        <v>0.3361112458073876</v>
       </c>
       <c r="D21">
-        <v>0.156508073173768</v>
+        <v>0.009730038226098969</v>
       </c>
       <c r="E21">
-        <v>0.08542335915624477</v>
+        <v>0.7569464230661538</v>
       </c>
       <c r="F21">
-        <v>0.8925059129701509</v>
+        <v>1.571315455621814</v>
       </c>
       <c r="G21">
-        <v>0.0007817399658083617</v>
+        <v>1.541832166857631</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2571389386570515</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1995817240631883</v>
       </c>
       <c r="J21">
-        <v>0.06614351176904165</v>
+        <v>0.7356732807067772</v>
       </c>
       <c r="K21">
-        <v>6.030517053803237</v>
+        <v>0.7689083596155726</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.316431223505148</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.839523232974045</v>
       </c>
       <c r="O21">
-        <v>2.028922771760904</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>58.44512584861837</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2563742185677853</v>
+        <v>0.3473853420463229</v>
       </c>
       <c r="D22">
-        <v>0.1662883242315161</v>
+        <v>0.009545353003591828</v>
       </c>
       <c r="E22">
-        <v>0.08925135113489091</v>
+        <v>0.808019733141478</v>
       </c>
       <c r="F22">
-        <v>0.9302884696940339</v>
+        <v>1.761148362921986</v>
       </c>
       <c r="G22">
-        <v>0.0007776299954912246</v>
+        <v>1.74636294065499</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3223057015878745</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2450118146078921</v>
       </c>
       <c r="J22">
-        <v>0.06745650999606312</v>
+        <v>0.8195153487678795</v>
       </c>
       <c r="K22">
-        <v>6.481971596324968</v>
+        <v>0.8736029281033382</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.415210988098437</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.992123564321957</v>
       </c>
       <c r="O22">
-        <v>2.106260389011112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>64.38990094345218</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2463146472303208</v>
+        <v>0.3396409599254469</v>
       </c>
       <c r="D23">
-        <v>0.1610571677619816</v>
+        <v>0.009435790684360512</v>
       </c>
       <c r="E23">
-        <v>0.08719467725869734</v>
+        <v>0.7798298991527446</v>
       </c>
       <c r="F23">
-        <v>0.9098177604881528</v>
+        <v>1.663118007942018</v>
       </c>
       <c r="G23">
-        <v>0.0007798184907009826</v>
+        <v>1.640840620951394</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2861469783964576</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2198900654299045</v>
       </c>
       <c r="J23">
-        <v>0.06673463395704005</v>
+        <v>0.7767246990133003</v>
       </c>
       <c r="K23">
-        <v>6.240718503753499</v>
+        <v>0.8207502747980513</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.362406747910242</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.910365235696275</v>
       </c>
       <c r="O23">
-        <v>2.064109225599879</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>61.15480707812912</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2087736275364733</v>
+        <v>0.3098502543523409</v>
       </c>
       <c r="D24">
-        <v>0.1414790306955069</v>
+        <v>0.009818341383542872</v>
       </c>
       <c r="E24">
-        <v>0.0796920844791309</v>
+        <v>0.67593570955178</v>
       </c>
       <c r="F24">
-        <v>0.8387079610402424</v>
+        <v>1.329906014486966</v>
       </c>
       <c r="G24">
-        <v>0.0007882239210978618</v>
+        <v>1.285843972348317</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1771402384385055</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1419124346024123</v>
       </c>
       <c r="J24">
-        <v>0.06444643161151475</v>
+        <v>0.6346058882870409</v>
       </c>
       <c r="K24">
-        <v>5.333134092090916</v>
+        <v>0.6478915474461786</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.1641249726746</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.616614879406939</v>
       </c>
       <c r="O24">
-        <v>1.922842638139912</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>50.06429951853494</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1692441493967323</v>
+        <v>0.2730849131828563</v>
       </c>
       <c r="D25">
-        <v>0.1207825981162785</v>
+        <v>0.010823503666618</v>
       </c>
       <c r="E25">
-        <v>0.07213980066930858</v>
+        <v>0.5648345556317338</v>
       </c>
       <c r="F25">
-        <v>0.7739928605857784</v>
+        <v>1.036302685343102</v>
       </c>
       <c r="G25">
-        <v>0.0007975723809552667</v>
+        <v>0.9789680805697429</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.09628640048138704</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.0812412873233832</v>
       </c>
       <c r="J25">
-        <v>0.06282445028885064</v>
+        <v>0.5165600140345248</v>
       </c>
       <c r="K25">
-        <v>4.364043055898321</v>
+        <v>0.5098633072880858</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9531131358114422</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.31909618131985</v>
       </c>
       <c r="O25">
-        <v>1.804729024826855</v>
+        <v>39.54419413280328</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.239150253162947</v>
+        <v>0.297940301234874</v>
       </c>
       <c r="D2">
-        <v>0.01134449639614488</v>
+        <v>0.01935875462674375</v>
       </c>
       <c r="E2">
-        <v>0.4808424497007167</v>
+        <v>0.5033992110570651</v>
       </c>
       <c r="F2">
-        <v>0.8676629413762953</v>
+        <v>0.7233881194240297</v>
       </c>
       <c r="G2">
-        <v>0.8071090996812273</v>
+        <v>0.6340774245655609</v>
       </c>
       <c r="H2">
-        <v>0.0549055699061326</v>
+        <v>0.04683170493483471</v>
       </c>
       <c r="I2">
-        <v>0.04845963487432003</v>
+        <v>0.0373206726315658</v>
       </c>
       <c r="J2">
-        <v>0.4557339921936432</v>
+        <v>0.4318648218571894</v>
       </c>
       <c r="K2">
-        <v>0.4442175306834386</v>
+        <v>0.3344063074352519</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1945468421276182</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.09319294696881997</v>
       </c>
       <c r="N2">
-        <v>1.109137895897021</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>32.44953760111582</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.092532689035011</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>32.3775040150482</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2179120085831698</v>
+        <v>0.2640843292723076</v>
       </c>
       <c r="D3">
-        <v>0.01205430349796544</v>
+        <v>0.01865986080717974</v>
       </c>
       <c r="E3">
-        <v>0.4246942478056468</v>
+        <v>0.4430585180759721</v>
       </c>
       <c r="F3">
-        <v>0.7603799596871568</v>
+        <v>0.6456322226761415</v>
       </c>
       <c r="G3">
-        <v>0.6985806014949247</v>
+        <v>0.5548208215156478</v>
       </c>
       <c r="H3">
-        <v>0.03392126388615174</v>
+        <v>0.02927247006770467</v>
       </c>
       <c r="I3">
-        <v>0.03128963893709802</v>
+        <v>0.0247584096643565</v>
       </c>
       <c r="J3">
-        <v>0.418214529147221</v>
+        <v>0.4085416208096291</v>
       </c>
       <c r="K3">
-        <v>0.4039765510830975</v>
+        <v>0.3156392739960836</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1958668996957051</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.07361454794341782</v>
       </c>
       <c r="N3">
-        <v>0.9680767322914505</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>27.87507856341898</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.95293366465242</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>27.83333050050447</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2046134598827507</v>
+        <v>0.2432556127768066</v>
       </c>
       <c r="D4">
-        <v>0.01253009609739308</v>
+        <v>0.01823382390483985</v>
       </c>
       <c r="E4">
-        <v>0.3900342012442763</v>
+        <v>0.405931243478463</v>
       </c>
       <c r="F4">
-        <v>0.6998492829248448</v>
+        <v>0.601541656495435</v>
       </c>
       <c r="G4">
-        <v>0.6379377057950819</v>
+        <v>0.5109018485678263</v>
       </c>
       <c r="H4">
-        <v>0.02364450230641177</v>
+        <v>0.0206137112765207</v>
       </c>
       <c r="I4">
-        <v>0.02263774135234398</v>
+        <v>0.01834551140735607</v>
       </c>
       <c r="J4">
-        <v>0.398150251330776</v>
+        <v>0.3955576791759228</v>
       </c>
       <c r="K4">
-        <v>0.3831285448959818</v>
+        <v>0.3065364661533181</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1968598845601583</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06402738899559424</v>
       </c>
       <c r="N4">
-        <v>0.8819676893887163</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>25.14382264641995</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.8681059216646929</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>25.11604855285395</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1996140964914019</v>
+        <v>0.2352648255248084</v>
       </c>
       <c r="D5">
-        <v>0.01278170266569845</v>
+        <v>0.01812056918227967</v>
       </c>
       <c r="E5">
-        <v>0.3760602174180221</v>
+        <v>0.390962735347216</v>
       </c>
       <c r="F5">
-        <v>0.6750188824059791</v>
+        <v>0.5832583712427279</v>
       </c>
       <c r="G5">
-        <v>0.613034439262151</v>
+        <v>0.4928151163502008</v>
       </c>
       <c r="H5">
-        <v>0.01999100831743025</v>
+        <v>0.01752156592327248</v>
       </c>
       <c r="I5">
-        <v>0.01954663420212777</v>
+        <v>0.01605949771539272</v>
       </c>
       <c r="J5">
-        <v>0.3898717257049782</v>
+        <v>0.3899186291591974</v>
       </c>
       <c r="K5">
-        <v>0.3743762341806942</v>
+        <v>0.3024918291279448</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1969100850208534</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06040395406607857</v>
       </c>
       <c r="N5">
-        <v>0.8467732249653466</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>24.04573744799387</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.8335312804212833</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>24.02279247337134</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1993612342641882</v>
+        <v>0.2345514638109876</v>
       </c>
       <c r="D6">
-        <v>0.01288443951407103</v>
+        <v>0.01817436835876052</v>
       </c>
       <c r="E6">
-        <v>0.3739812981634216</v>
+        <v>0.3887044198814991</v>
       </c>
       <c r="F6">
-        <v>0.6693642201861536</v>
+        <v>0.5789248665526046</v>
       </c>
       <c r="G6">
-        <v>0.6071801270826995</v>
+        <v>0.4884003962818895</v>
       </c>
       <c r="H6">
-        <v>0.01940211164211716</v>
+        <v>0.01702271627470881</v>
       </c>
       <c r="I6">
-        <v>0.01910103185562484</v>
+        <v>0.01576318737458493</v>
       </c>
       <c r="J6">
-        <v>0.3876234754199004</v>
+        <v>0.3882227595479293</v>
       </c>
       <c r="K6">
-        <v>0.3716470408515207</v>
+        <v>0.3008062055359275</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1964450254989174</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05951685750611091</v>
       </c>
       <c r="N6">
-        <v>0.8407210456124403</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>23.864082565432</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.8276074264017268</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>23.84190930534032</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2061323090583187</v>
+        <v>0.2443176381902816</v>
       </c>
       <c r="D7">
-        <v>0.01269797946750018</v>
+        <v>0.01855273190240325</v>
       </c>
       <c r="E7">
-        <v>0.3905162312619979</v>
+        <v>0.4061710456736023</v>
       </c>
       <c r="F7">
-        <v>0.6951263161771095</v>
+        <v>0.5954240539016311</v>
       </c>
       <c r="G7">
-        <v>0.6326745669504987</v>
+        <v>0.5096948770521834</v>
       </c>
       <c r="H7">
-        <v>0.02355607189549361</v>
+        <v>0.02052505592994275</v>
       </c>
       <c r="I7">
-        <v>0.02269524063554407</v>
+        <v>0.01845489910630249</v>
       </c>
       <c r="J7">
-        <v>0.3955375354932755</v>
+        <v>0.3863359599969272</v>
       </c>
       <c r="K7">
-        <v>0.3793701815369275</v>
+        <v>0.3023865282790084</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.195031608739221</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06269674623939991</v>
       </c>
       <c r="N7">
-        <v>0.8809183660465578</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>25.12862712958918</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.8672718225157325</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25.10082522634417</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2340004959182806</v>
+        <v>0.2868211135541685</v>
       </c>
       <c r="D8">
-        <v>0.01179558928158997</v>
+        <v>0.01979652057626069</v>
       </c>
       <c r="E8">
-        <v>0.4624172053710893</v>
+        <v>0.4828336959649633</v>
       </c>
       <c r="F8">
-        <v>0.8235072759088666</v>
+        <v>0.6834619449628434</v>
       </c>
       <c r="G8">
-        <v>0.7616256747716079</v>
+        <v>0.6106620823925653</v>
       </c>
       <c r="H8">
-        <v>0.04698801398745345</v>
+        <v>0.04015731757256349</v>
       </c>
       <c r="I8">
-        <v>0.04216979410472366</v>
+        <v>0.03275987236954148</v>
       </c>
       <c r="J8">
-        <v>0.4387395881637843</v>
+        <v>0.3973247845751757</v>
       </c>
       <c r="K8">
-        <v>0.424515228048655</v>
+        <v>0.319436086322888</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1916362947360568</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08317469949173173</v>
       </c>
       <c r="N8">
-        <v>1.059602509148192</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>30.85260779165026</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.044003324190754</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>30.7916465572186</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2830080867363733</v>
+        <v>0.3681639585076084</v>
       </c>
       <c r="D9">
-        <v>0.01014771635768241</v>
+        <v>0.02141579753208589</v>
       </c>
       <c r="E9">
-        <v>0.6010038561620732</v>
+        <v>0.6325635841550934</v>
       </c>
       <c r="F9">
-        <v>1.137057984560343</v>
+        <v>0.9071882019953534</v>
       </c>
       <c r="G9">
-        <v>1.084315530991091</v>
+        <v>0.8526750632808984</v>
       </c>
       <c r="H9">
-        <v>0.1201896434939358</v>
+        <v>0.1007376984653653</v>
       </c>
       <c r="I9">
-        <v>0.09937778195085745</v>
+        <v>0.0736897373663945</v>
       </c>
       <c r="J9">
-        <v>0.557570785104474</v>
+        <v>0.4607343812307221</v>
       </c>
       <c r="K9">
-        <v>0.5586063104819559</v>
+        <v>0.386641055207896</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1911347352085428</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1497278817303069</v>
       </c>
       <c r="N9">
-        <v>1.418714260895513</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>42.95916163968707</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.402574118559244</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>42.77741160816362</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3218136864493744</v>
+        <v>0.4290055423897741</v>
       </c>
       <c r="D10">
-        <v>0.0102331213471345</v>
+        <v>0.02436459869653262</v>
       </c>
       <c r="E10">
-        <v>0.7198468867428858</v>
+        <v>0.7592994054445228</v>
       </c>
       <c r="F10">
-        <v>1.396122931022134</v>
+        <v>1.075370746525891</v>
       </c>
       <c r="G10">
-        <v>1.354691732230151</v>
+        <v>1.076866796725412</v>
       </c>
       <c r="H10">
-        <v>0.202415506442351</v>
+        <v>0.1676500905020855</v>
       </c>
       <c r="I10">
-        <v>0.160539807213067</v>
+        <v>0.1163151695298774</v>
       </c>
       <c r="J10">
-        <v>0.6595052209769392</v>
+        <v>0.4682264868044825</v>
       </c>
       <c r="K10">
-        <v>0.6761225139922189</v>
+        <v>0.4387536695579044</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1855330083547244</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2115271566755013</v>
       </c>
       <c r="N10">
-        <v>1.732991625937018</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>52.91851790221506</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.721226870725161</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>52.56589082690448</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3900228715133949</v>
+        <v>0.4974551451279865</v>
       </c>
       <c r="D11">
-        <v>0.01879687639553751</v>
+        <v>0.03723200107625502</v>
       </c>
       <c r="E11">
-        <v>0.9329023551918567</v>
+        <v>0.971136759957858</v>
       </c>
       <c r="F11">
-        <v>1.329334353148184</v>
+        <v>0.9926031820100292</v>
       </c>
       <c r="G11">
-        <v>1.272056756234576</v>
+        <v>1.060603703529338</v>
       </c>
       <c r="H11">
-        <v>0.263284080422185</v>
+        <v>0.2198124328071138</v>
       </c>
       <c r="I11">
-        <v>0.1938713065876643</v>
+        <v>0.1392573785167528</v>
       </c>
       <c r="J11">
-        <v>0.5998536581940641</v>
+        <v>0.3352118245027924</v>
       </c>
       <c r="K11">
-        <v>0.58481362506474</v>
+        <v>0.3539569374428595</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1427351505355219</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1996354729823508</v>
       </c>
       <c r="N11">
-        <v>2.242554944529473</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>57.8490767601437</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.233690527319311</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>57.38122915908923</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4423983124907238</v>
+        <v>0.5448470735020123</v>
       </c>
       <c r="D12">
-        <v>0.02774400338298477</v>
+        <v>0.04848376674471666</v>
       </c>
       <c r="E12">
-        <v>1.104102518221225</v>
+        <v>1.138988638319702</v>
       </c>
       <c r="F12">
-        <v>1.225975569138683</v>
+        <v>0.9031191482673222</v>
       </c>
       <c r="G12">
-        <v>1.156614792928778</v>
+        <v>0.9938597126208464</v>
       </c>
       <c r="H12">
-        <v>0.3203249410514815</v>
+        <v>0.2730638834563877</v>
       </c>
       <c r="I12">
-        <v>0.2082227970990926</v>
+        <v>0.1490901139487564</v>
       </c>
       <c r="J12">
-        <v>0.5334088782533399</v>
+        <v>0.2575537855411199</v>
       </c>
       <c r="K12">
-        <v>0.4949527225384927</v>
+        <v>0.2864504396088492</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1139813708169761</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1815393592430219</v>
       </c>
       <c r="N12">
-        <v>2.647275053084229</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>59.80544366400898</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2.638950663878092</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>59.28492036247565</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4883686538203449</v>
+        <v>0.5834457548358216</v>
       </c>
       <c r="D13">
-        <v>0.03767523365966241</v>
+        <v>0.05852889328031097</v>
       </c>
       <c r="E13">
-        <v>1.251740837733536</v>
+        <v>1.282226690319447</v>
       </c>
       <c r="F13">
-        <v>1.075977904849111</v>
+        <v>0.7972531495427262</v>
       </c>
       <c r="G13">
-        <v>0.9950854694291422</v>
+        <v>0.8662453027379513</v>
       </c>
       <c r="H13">
-        <v>0.3724254825670528</v>
+        <v>0.3261105431584497</v>
       </c>
       <c r="I13">
-        <v>0.2058224659979748</v>
+        <v>0.1477280584892027</v>
       </c>
       <c r="J13">
-        <v>0.4511290280237716</v>
+        <v>0.2171904936502784</v>
       </c>
       <c r="K13">
-        <v>0.3916386880763127</v>
+        <v>0.2222261569959585</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09199261526286051</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1547105814961292</v>
       </c>
       <c r="N13">
-        <v>2.985668440199476</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>59.38041118355773</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2.975657031295327</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>58.87338029000477</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.5186272357637449</v>
+        <v>0.6073906396398172</v>
       </c>
       <c r="D14">
-        <v>0.04538667748204972</v>
+        <v>0.06508235068461943</v>
       </c>
       <c r="E14">
-        <v>1.345408397306073</v>
+        <v>1.372406062370345</v>
       </c>
       <c r="F14">
-        <v>0.9513697737871212</v>
+        <v>0.7150823732764167</v>
       </c>
       <c r="G14">
-        <v>0.8633367310028035</v>
+        <v>0.7526445171988172</v>
       </c>
       <c r="H14">
-        <v>0.4094997358250225</v>
+        <v>0.3659213780927786</v>
       </c>
       <c r="I14">
-        <v>0.1966632876334344</v>
+        <v>0.1417755786078656</v>
       </c>
       <c r="J14">
-        <v>0.3873494959491524</v>
+        <v>0.2017402357236051</v>
       </c>
       <c r="K14">
-        <v>0.3152797647903611</v>
+        <v>0.1786413110208116</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07927919903686131</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1322952205036607</v>
       </c>
       <c r="N14">
-        <v>3.19379407269443</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>58.00980516751258</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>3.181927575379405</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>57.54107851908407</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.5247048283784181</v>
+        <v>0.6116347774117514</v>
       </c>
       <c r="D15">
-        <v>0.04733244970000072</v>
+        <v>0.06629282435558537</v>
       </c>
       <c r="E15">
-        <v>1.360757142565078</v>
+        <v>1.386861276316282</v>
       </c>
       <c r="F15">
-        <v>0.9098513886813464</v>
+        <v>0.6895218611427651</v>
       </c>
       <c r="G15">
-        <v>0.8198016997737767</v>
+        <v>0.7121818418028028</v>
       </c>
       <c r="H15">
-        <v>0.4141077087075189</v>
+        <v>0.372196552758453</v>
       </c>
       <c r="I15">
-        <v>0.1908866382529606</v>
+        <v>0.1379737586034064</v>
       </c>
       <c r="J15">
-        <v>0.3676513796328322</v>
+        <v>0.2024695672828187</v>
       </c>
       <c r="K15">
-        <v>0.2923113173531888</v>
+        <v>0.1667883806675192</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07676177316280786</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1243700283039537</v>
       </c>
       <c r="N15">
-        <v>3.223425887112825</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>57.17964214716523</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>3.210819893968335</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>56.73304630726324</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.499820145589581</v>
+        <v>0.584194012883188</v>
       </c>
       <c r="D16">
-        <v>0.04516813331429148</v>
+        <v>0.06071330129749697</v>
       </c>
       <c r="E16">
-        <v>1.273042173525766</v>
+        <v>1.299147606591262</v>
       </c>
       <c r="F16">
-        <v>0.8170707131199038</v>
+        <v>0.6453334938102842</v>
       </c>
       <c r="G16">
-        <v>0.7230571227588172</v>
+        <v>0.6055962016774714</v>
       </c>
       <c r="H16">
-        <v>0.3563132236201199</v>
+        <v>0.3233134870762626</v>
       </c>
       <c r="I16">
-        <v>0.1584909891362738</v>
+        <v>0.1160021618420553</v>
       </c>
       <c r="J16">
-        <v>0.334453032605694</v>
+        <v>0.245871561940362</v>
       </c>
       <c r="K16">
-        <v>0.2553236384430591</v>
+        <v>0.1578669413878373</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08322490214944622</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1024791038023913</v>
       </c>
       <c r="N16">
-        <v>2.9964663403168</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>52.57499106592138</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2.98096248519613</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>52.23766449838064</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4642027318862745</v>
+        <v>0.5489720164555933</v>
       </c>
       <c r="D17">
-        <v>0.03928757589797272</v>
+        <v>0.05344641866977895</v>
       </c>
       <c r="E17">
-        <v>1.15637868381863</v>
+        <v>1.183767799090759</v>
       </c>
       <c r="F17">
-        <v>0.8137932484667232</v>
+        <v>0.654568287630795</v>
       </c>
       <c r="G17">
-        <v>0.72047881062295</v>
+        <v>0.5887734774944278</v>
       </c>
       <c r="H17">
-        <v>0.2931906841556753</v>
+        <v>0.2649346535805961</v>
       </c>
       <c r="I17">
-        <v>0.1401848221614017</v>
+        <v>0.1033536244518292</v>
       </c>
       <c r="J17">
-        <v>0.3435731343578965</v>
+        <v>0.2844430987505575</v>
       </c>
       <c r="K17">
-        <v>0.2678311952813814</v>
+        <v>0.1743882786083546</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09509084329872763</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.09796552636190725</v>
       </c>
       <c r="N17">
-        <v>2.71429081082232</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>49.87355802775255</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2.697696412264605</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>49.59024598793468</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4162281925166269</v>
+        <v>0.5044646339752887</v>
       </c>
       <c r="D18">
-        <v>0.03017828491331898</v>
+        <v>0.04384542990008811</v>
       </c>
       <c r="E18">
-        <v>1.007971159228305</v>
+        <v>1.037954439412644</v>
       </c>
       <c r="F18">
-        <v>0.888259510311741</v>
+        <v>0.7167859485559944</v>
       </c>
       <c r="G18">
-        <v>0.8009050764270285</v>
+        <v>0.6417166665440135</v>
       </c>
       <c r="H18">
-        <v>0.2268641182883755</v>
+        <v>0.201033793356693</v>
       </c>
       <c r="I18">
-        <v>0.1300255464935933</v>
+        <v>0.0960875881136527</v>
       </c>
       <c r="J18">
-        <v>0.3913796197390269</v>
+        <v>0.3355039828365562</v>
       </c>
       <c r="K18">
-        <v>0.3279805449552953</v>
+        <v>0.2198470059596005</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1154985909737292</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1088629767036267</v>
       </c>
       <c r="N18">
-        <v>2.368260645541056</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>48.35983766316934</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2.351236158977201</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>48.1032782063225</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3690363656555178</v>
+        <v>0.4624012479489181</v>
       </c>
       <c r="D19">
-        <v>0.02102731854052564</v>
+        <v>0.03439976672613909</v>
       </c>
       <c r="E19">
-        <v>0.8561967334933911</v>
+        <v>0.889133295016677</v>
       </c>
       <c r="F19">
-        <v>1.016722651305926</v>
+        <v>0.8154815785141807</v>
       </c>
       <c r="G19">
-        <v>0.9410567497825753</v>
+        <v>0.7425897574341889</v>
       </c>
       <c r="H19">
-        <v>0.1785742641603889</v>
+        <v>0.1532883082202048</v>
       </c>
       <c r="I19">
-        <v>0.1268965471384531</v>
+        <v>0.09378351635024629</v>
       </c>
       <c r="J19">
-        <v>0.4659305925346473</v>
+        <v>0.3961538798864837</v>
       </c>
       <c r="K19">
-        <v>0.4240750747183384</v>
+        <v>0.2869166253705657</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1418945253751787</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1318688541018354</v>
       </c>
       <c r="N19">
-        <v>2.016501398904609</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>47.85979616172318</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.999834610337302</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>47.61031399955829</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3172757770838501</v>
+        <v>0.4208956738519873</v>
       </c>
       <c r="D20">
-        <v>0.01069977422583079</v>
+        <v>0.02383470613172989</v>
       </c>
       <c r="E20">
-        <v>0.691415019240921</v>
+        <v>0.7291925825372232</v>
       </c>
       <c r="F20">
-        <v>1.307323837294192</v>
+        <v>1.023531862922212</v>
       </c>
       <c r="G20">
-        <v>1.260116394697434</v>
+        <v>0.9873775725186675</v>
       </c>
       <c r="H20">
-        <v>0.1775930368903071</v>
+        <v>0.14768508304401</v>
       </c>
       <c r="I20">
-        <v>0.1426050134632773</v>
+        <v>0.1043598799375278</v>
       </c>
       <c r="J20">
-        <v>0.6211077938955043</v>
+        <v>0.4836205070370312</v>
       </c>
       <c r="K20">
-        <v>0.6284676228371211</v>
+        <v>0.4177631192751434</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1848548494487545</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1914141238839164</v>
       </c>
       <c r="N20">
-        <v>1.648726173327987</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>50.18794106557971</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.635041476726229</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>49.89183972392868</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3361112458073876</v>
+        <v>0.447819863475388</v>
       </c>
       <c r="D21">
-        <v>0.009730038226098969</v>
+        <v>0.02699695650058231</v>
       </c>
       <c r="E21">
-        <v>0.7569464230661538</v>
+        <v>0.7983013020383112</v>
       </c>
       <c r="F21">
-        <v>1.571315455621814</v>
+        <v>1.154776399245648</v>
       </c>
       <c r="G21">
-        <v>1.541832166857631</v>
+        <v>1.281167075546847</v>
       </c>
       <c r="H21">
-        <v>0.2571389386570515</v>
+        <v>0.211083755765224</v>
       </c>
       <c r="I21">
-        <v>0.1995817240631883</v>
+        <v>0.142615981582324</v>
       </c>
       <c r="J21">
-        <v>0.7356732807067772</v>
+        <v>0.3843757568126023</v>
       </c>
       <c r="K21">
-        <v>0.7689083596155726</v>
+        <v>0.465901235719798</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1811282079884009</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.246637142874512</v>
       </c>
       <c r="N21">
-        <v>1.839523232974045</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>58.44512584861837</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.834734719681222</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>57.95255511059236</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3473853420463229</v>
+        <v>0.4637777828588128</v>
       </c>
       <c r="D22">
-        <v>0.009545353003591828</v>
+        <v>0.02955160744486562</v>
       </c>
       <c r="E22">
-        <v>0.808019733141478</v>
+        <v>0.8517952733194818</v>
       </c>
       <c r="F22">
-        <v>1.761148362921986</v>
+        <v>1.246536200196701</v>
       </c>
       <c r="G22">
-        <v>1.74636294065499</v>
+        <v>1.498856378386819</v>
       </c>
       <c r="H22">
-        <v>0.3223057015878745</v>
+        <v>0.2623563339220411</v>
       </c>
       <c r="I22">
-        <v>0.2450118146078921</v>
+        <v>0.172515677883351</v>
       </c>
       <c r="J22">
-        <v>0.8195153487678795</v>
+        <v>0.3204900201843515</v>
       </c>
       <c r="K22">
-        <v>0.8736029281033382</v>
+        <v>0.5020373897501429</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1783431508582822</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2884701493611175</v>
       </c>
       <c r="N22">
-        <v>1.992123564321957</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>64.38990094345218</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.994824941769792</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>63.7059146665224</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3396409599254469</v>
+        <v>0.4547076656094191</v>
       </c>
       <c r="D23">
-        <v>0.009435790684360512</v>
+        <v>0.02754408086374127</v>
       </c>
       <c r="E23">
-        <v>0.7798298991527446</v>
+        <v>0.822807206154252</v>
       </c>
       <c r="F23">
-        <v>1.663118007942018</v>
+        <v>1.206723163045922</v>
       </c>
       <c r="G23">
-        <v>1.640840620951394</v>
+        <v>1.375857994063665</v>
       </c>
       <c r="H23">
-        <v>0.2861469783964576</v>
+        <v>0.2340690874712943</v>
       </c>
       <c r="I23">
-        <v>0.2198900654299045</v>
+        <v>0.1560174921653257</v>
       </c>
       <c r="J23">
-        <v>0.7767246990133003</v>
+        <v>0.3711967181761224</v>
       </c>
       <c r="K23">
-        <v>0.8207502747980513</v>
+        <v>0.4885938188407266</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1820465045265607</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2682085549782443</v>
       </c>
       <c r="N23">
-        <v>1.910365235696275</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>61.15480707812912</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.908369651512317</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>60.58177626293502</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3098502543523409</v>
+        <v>0.4132908669301969</v>
       </c>
       <c r="D24">
-        <v>0.009818341383542872</v>
+        <v>0.02267210446329671</v>
       </c>
       <c r="E24">
-        <v>0.67593570955178</v>
+        <v>0.71390097753833</v>
       </c>
       <c r="F24">
-        <v>1.329906014486966</v>
+        <v>1.041412310014493</v>
       </c>
       <c r="G24">
-        <v>1.285843972348317</v>
+        <v>1.006054413267833</v>
       </c>
       <c r="H24">
-        <v>0.1771402384385055</v>
+        <v>0.1473047699936789</v>
       </c>
       <c r="I24">
-        <v>0.1419124346024123</v>
+        <v>0.1036618694493114</v>
       </c>
       <c r="J24">
-        <v>0.6346058882870409</v>
+        <v>0.4953748164778204</v>
       </c>
       <c r="K24">
-        <v>0.6478915474461786</v>
+        <v>0.4318511680486523</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1903180795021768</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1964061698298565</v>
       </c>
       <c r="N24">
-        <v>1.616614879406939</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>50.06429951853494</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.602899243447723</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>49.76979848085864</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2730849131828563</v>
+        <v>0.350232788433857</v>
       </c>
       <c r="D25">
-        <v>0.010823503666618</v>
+        <v>0.02118098588528028</v>
       </c>
       <c r="E25">
-        <v>0.5648345556317338</v>
+        <v>0.5934119921566534</v>
       </c>
       <c r="F25">
-        <v>1.036302685343102</v>
+        <v>0.8379561440939938</v>
       </c>
       <c r="G25">
-        <v>0.9789680805697429</v>
+        <v>0.7683001258643145</v>
       </c>
       <c r="H25">
-        <v>0.09628640048138704</v>
+        <v>0.08110258166554613</v>
       </c>
       <c r="I25">
-        <v>0.0812412873233832</v>
+        <v>0.06103741690076525</v>
       </c>
       <c r="J25">
-        <v>0.5165600140345248</v>
+        <v>0.4480918781248704</v>
       </c>
       <c r="K25">
-        <v>0.5098633072880858</v>
+        <v>0.3616123685363064</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1896196108302632</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1273093829768577</v>
       </c>
       <c r="N25">
-        <v>1.31909618131985</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>39.54419413280328</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.302422744415196</v>
       </c>
       <c r="Q25">
+        <v>39.40517242197444</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
